--- a/clients/DiveInsurance/data/template/Phly_Prop.xlsx
+++ b/clients/DiveInsurance/data/template/Phly_Prop.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Cert_No</t>
   </si>
@@ -91,6 +91,18 @@
     <t>Total</t>
   </si>
   <si>
+    <t>ProRated Contents Premium</t>
+  </si>
+  <si>
+    <t>ProRated Building Premium</t>
+  </si>
+  <si>
+    <t>ProRated Loss of Income Premium</t>
+  </si>
+  <si>
+    <t>ProRated Property Premium</t>
+  </si>
+  <si>
     <t>{{certificate_no}}</t>
   </si>
   <si>
@@ -167,6 +179,18 @@
   </si>
   <si>
     <t>${{Total}}</t>
+  </si>
+  <si>
+    <t>{{ProRated_Contents_Premium}}</t>
+  </si>
+  <si>
+    <t>{{ProRated_Building_Premium}}</t>
+  </si>
+  <si>
+    <t>{{ProRated_Loss_of_Income_Premium}}</t>
+  </si>
+  <si>
+    <t>{{propertyProRataPremium}}</t>
   </si>
 </sst>
 </file>
@@ -210,12 +234,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
@@ -434,19 +464,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="17.29"/>
+    <col customWidth="1" min="3" max="3" width="14.43"/>
     <col customWidth="1" min="4" max="4" width="17.0"/>
+    <col customWidth="1" min="5" max="6" width="14.43"/>
     <col customWidth="1" min="13" max="13" width="16.71"/>
     <col customWidth="1" min="17" max="17" width="22.14"/>
     <col customWidth="1" min="19" max="19" width="18.57"/>
     <col customWidth="1" min="20" max="20" width="37.43"/>
     <col customWidth="1" min="21" max="21" width="41.0"/>
     <col customWidth="1" min="22" max="22" width="36.0"/>
+    <col customWidth="1" min="27" max="27" width="38.0"/>
+    <col customWidth="1" min="28" max="28" width="31.0"/>
+    <col customWidth="1" min="29" max="29" width="38.0"/>
+    <col customWidth="1" min="30" max="30" width="34.57"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,87 +562,1109 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="S2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="T2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="W2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
+    <row r="3" ht="15.75" customHeight="1"/>
+    <row r="4" ht="15.75" customHeight="1"/>
+    <row r="5" ht="15.75" customHeight="1"/>
+    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/clients/DiveInsurance/data/template/Phly_Prop.xlsx
+++ b/clients/DiveInsurance/data/template/Phly_Prop.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Cert_No</t>
   </si>
@@ -89,6 +89,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>ProRated Contents Premium</t>
+  </si>
+  <si>
+    <t>ProRated Building Premium</t>
+  </si>
+  <si>
+    <t>ProRated Loss of Income Premium</t>
+  </si>
+  <si>
+    <t>ProRated Property Premium</t>
   </si>
   <si>
     <t xml:space="preserve">Cancelled </t>
@@ -181,6 +193,18 @@
     <t>${{Total}}</t>
   </si>
   <si>
+    <t>{{ProRated_Contents_Premium}}</t>
+  </si>
+  <si>
+    <t>{{ProRated_Building_Premium}}</t>
+  </si>
+  <si>
+    <t>{{ProRated_Loss_of_Income_Premium}}</t>
+  </si>
+  <si>
+    <t>{{propertyProRataPremium}}</t>
+  </si>
+  <si>
     <t>{{cancelled}}</t>
   </si>
   <si>
@@ -197,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -209,13 +233,20 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -245,21 +276,30 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,19 +515,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="17.29"/>
+    <col customWidth="1" min="3" max="3" width="14.43"/>
     <col customWidth="1" min="4" max="4" width="17.0"/>
+    <col customWidth="1" min="5" max="6" width="14.43"/>
     <col customWidth="1" min="13" max="13" width="16.71"/>
     <col customWidth="1" min="17" max="17" width="22.14"/>
     <col customWidth="1" min="19" max="19" width="18.57"/>
     <col customWidth="1" min="20" max="20" width="37.43"/>
     <col customWidth="1" min="21" max="21" width="41.0"/>
     <col customWidth="1" min="22" max="22" width="36.0"/>
+    <col customWidth="1" min="30" max="30" width="30.71"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,98 +622,6110 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="Y2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="Z2" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="AA2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="7"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="AA62" s="6"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="7"/>
+      <c r="AC63" s="7"/>
+      <c r="AD63" s="7"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="7"/>
+      <c r="AC65" s="7"/>
+      <c r="AD65" s="7"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="7"/>
+      <c r="AC66" s="7"/>
+      <c r="AD66" s="7"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="AA67" s="6"/>
+      <c r="AB67" s="7"/>
+      <c r="AC67" s="7"/>
+      <c r="AD67" s="7"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="AA68" s="6"/>
+      <c r="AB68" s="7"/>
+      <c r="AC68" s="7"/>
+      <c r="AD68" s="7"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="AA69" s="6"/>
+      <c r="AB69" s="7"/>
+      <c r="AC69" s="7"/>
+      <c r="AD69" s="7"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="AA70" s="6"/>
+      <c r="AB70" s="7"/>
+      <c r="AC70" s="7"/>
+      <c r="AD70" s="7"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="AA71" s="6"/>
+      <c r="AB71" s="7"/>
+      <c r="AC71" s="7"/>
+      <c r="AD71" s="7"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="AA72" s="6"/>
+      <c r="AB72" s="7"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="7"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="AA73" s="6"/>
+      <c r="AB73" s="7"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="7"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="AA74" s="6"/>
+      <c r="AB74" s="7"/>
+      <c r="AC74" s="7"/>
+      <c r="AD74" s="7"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="AA75" s="6"/>
+      <c r="AB75" s="7"/>
+      <c r="AC75" s="7"/>
+      <c r="AD75" s="7"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="AA76" s="6"/>
+      <c r="AB76" s="7"/>
+      <c r="AC76" s="7"/>
+      <c r="AD76" s="7"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="AA77" s="6"/>
+      <c r="AB77" s="7"/>
+      <c r="AC77" s="7"/>
+      <c r="AD77" s="7"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="AA78" s="6"/>
+      <c r="AB78" s="7"/>
+      <c r="AC78" s="7"/>
+      <c r="AD78" s="7"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="AA79" s="6"/>
+      <c r="AB79" s="7"/>
+      <c r="AC79" s="7"/>
+      <c r="AD79" s="7"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="AA80" s="6"/>
+      <c r="AB80" s="7"/>
+      <c r="AC80" s="7"/>
+      <c r="AD80" s="7"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="AA81" s="6"/>
+      <c r="AB81" s="7"/>
+      <c r="AC81" s="7"/>
+      <c r="AD81" s="7"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="AA82" s="6"/>
+      <c r="AB82" s="7"/>
+      <c r="AC82" s="7"/>
+      <c r="AD82" s="7"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="AA83" s="6"/>
+      <c r="AB83" s="7"/>
+      <c r="AC83" s="7"/>
+      <c r="AD83" s="7"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="AA84" s="6"/>
+      <c r="AB84" s="7"/>
+      <c r="AC84" s="7"/>
+      <c r="AD84" s="7"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="AA85" s="6"/>
+      <c r="AB85" s="7"/>
+      <c r="AC85" s="7"/>
+      <c r="AD85" s="7"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="AA86" s="6"/>
+      <c r="AB86" s="7"/>
+      <c r="AC86" s="7"/>
+      <c r="AD86" s="7"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="AA87" s="6"/>
+      <c r="AB87" s="7"/>
+      <c r="AC87" s="7"/>
+      <c r="AD87" s="7"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="AA88" s="6"/>
+      <c r="AB88" s="7"/>
+      <c r="AC88" s="7"/>
+      <c r="AD88" s="7"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="AA89" s="6"/>
+      <c r="AB89" s="7"/>
+      <c r="AC89" s="7"/>
+      <c r="AD89" s="7"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="AA90" s="6"/>
+      <c r="AB90" s="7"/>
+      <c r="AC90" s="7"/>
+      <c r="AD90" s="7"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="AA91" s="6"/>
+      <c r="AB91" s="7"/>
+      <c r="AC91" s="7"/>
+      <c r="AD91" s="7"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="AA92" s="6"/>
+      <c r="AB92" s="7"/>
+      <c r="AC92" s="7"/>
+      <c r="AD92" s="7"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="AA93" s="6"/>
+      <c r="AB93" s="7"/>
+      <c r="AC93" s="7"/>
+      <c r="AD93" s="7"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="AA94" s="6"/>
+      <c r="AB94" s="7"/>
+      <c r="AC94" s="7"/>
+      <c r="AD94" s="7"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="AA95" s="6"/>
+      <c r="AB95" s="7"/>
+      <c r="AC95" s="7"/>
+      <c r="AD95" s="7"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="AA96" s="6"/>
+      <c r="AB96" s="7"/>
+      <c r="AC96" s="7"/>
+      <c r="AD96" s="7"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="AA97" s="6"/>
+      <c r="AB97" s="7"/>
+      <c r="AC97" s="7"/>
+      <c r="AD97" s="7"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="AA98" s="6"/>
+      <c r="AB98" s="7"/>
+      <c r="AC98" s="7"/>
+      <c r="AD98" s="7"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="AA99" s="6"/>
+      <c r="AB99" s="7"/>
+      <c r="AC99" s="7"/>
+      <c r="AD99" s="7"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="AA100" s="6"/>
+      <c r="AB100" s="7"/>
+      <c r="AC100" s="7"/>
+      <c r="AD100" s="7"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="AA101" s="6"/>
+      <c r="AB101" s="7"/>
+      <c r="AC101" s="7"/>
+      <c r="AD101" s="7"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="AA102" s="6"/>
+      <c r="AB102" s="7"/>
+      <c r="AC102" s="7"/>
+      <c r="AD102" s="7"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="AA103" s="6"/>
+      <c r="AB103" s="7"/>
+      <c r="AC103" s="7"/>
+      <c r="AD103" s="7"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="AA104" s="6"/>
+      <c r="AB104" s="7"/>
+      <c r="AC104" s="7"/>
+      <c r="AD104" s="7"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="AA105" s="6"/>
+      <c r="AB105" s="7"/>
+      <c r="AC105" s="7"/>
+      <c r="AD105" s="7"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="AA106" s="6"/>
+      <c r="AB106" s="7"/>
+      <c r="AC106" s="7"/>
+      <c r="AD106" s="7"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="AA107" s="6"/>
+      <c r="AB107" s="7"/>
+      <c r="AC107" s="7"/>
+      <c r="AD107" s="7"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="AA108" s="6"/>
+      <c r="AB108" s="7"/>
+      <c r="AC108" s="7"/>
+      <c r="AD108" s="7"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="AA109" s="6"/>
+      <c r="AB109" s="7"/>
+      <c r="AC109" s="7"/>
+      <c r="AD109" s="7"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="AA110" s="6"/>
+      <c r="AB110" s="7"/>
+      <c r="AC110" s="7"/>
+      <c r="AD110" s="7"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="AA111" s="6"/>
+      <c r="AB111" s="7"/>
+      <c r="AC111" s="7"/>
+      <c r="AD111" s="7"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="AA112" s="6"/>
+      <c r="AB112" s="7"/>
+      <c r="AC112" s="7"/>
+      <c r="AD112" s="7"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="AA113" s="6"/>
+      <c r="AB113" s="7"/>
+      <c r="AC113" s="7"/>
+      <c r="AD113" s="7"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="AA114" s="6"/>
+      <c r="AB114" s="7"/>
+      <c r="AC114" s="7"/>
+      <c r="AD114" s="7"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="AA115" s="6"/>
+      <c r="AB115" s="7"/>
+      <c r="AC115" s="7"/>
+      <c r="AD115" s="7"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="AA116" s="6"/>
+      <c r="AB116" s="7"/>
+      <c r="AC116" s="7"/>
+      <c r="AD116" s="7"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="AA117" s="6"/>
+      <c r="AB117" s="7"/>
+      <c r="AC117" s="7"/>
+      <c r="AD117" s="7"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="AA118" s="6"/>
+      <c r="AB118" s="7"/>
+      <c r="AC118" s="7"/>
+      <c r="AD118" s="7"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="AA119" s="6"/>
+      <c r="AB119" s="7"/>
+      <c r="AC119" s="7"/>
+      <c r="AD119" s="7"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="AA120" s="6"/>
+      <c r="AB120" s="7"/>
+      <c r="AC120" s="7"/>
+      <c r="AD120" s="7"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="AA121" s="6"/>
+      <c r="AB121" s="7"/>
+      <c r="AC121" s="7"/>
+      <c r="AD121" s="7"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="AA122" s="6"/>
+      <c r="AB122" s="7"/>
+      <c r="AC122" s="7"/>
+      <c r="AD122" s="7"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="AA123" s="6"/>
+      <c r="AB123" s="7"/>
+      <c r="AC123" s="7"/>
+      <c r="AD123" s="7"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="AA124" s="6"/>
+      <c r="AB124" s="7"/>
+      <c r="AC124" s="7"/>
+      <c r="AD124" s="7"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="AA125" s="6"/>
+      <c r="AB125" s="7"/>
+      <c r="AC125" s="7"/>
+      <c r="AD125" s="7"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="AA126" s="6"/>
+      <c r="AB126" s="7"/>
+      <c r="AC126" s="7"/>
+      <c r="AD126" s="7"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="AA127" s="6"/>
+      <c r="AB127" s="7"/>
+      <c r="AC127" s="7"/>
+      <c r="AD127" s="7"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="AA128" s="6"/>
+      <c r="AB128" s="7"/>
+      <c r="AC128" s="7"/>
+      <c r="AD128" s="7"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="AA129" s="6"/>
+      <c r="AB129" s="7"/>
+      <c r="AC129" s="7"/>
+      <c r="AD129" s="7"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="AA130" s="6"/>
+      <c r="AB130" s="7"/>
+      <c r="AC130" s="7"/>
+      <c r="AD130" s="7"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="AA131" s="6"/>
+      <c r="AB131" s="7"/>
+      <c r="AC131" s="7"/>
+      <c r="AD131" s="7"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="AA132" s="6"/>
+      <c r="AB132" s="7"/>
+      <c r="AC132" s="7"/>
+      <c r="AD132" s="7"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="AA133" s="6"/>
+      <c r="AB133" s="7"/>
+      <c r="AC133" s="7"/>
+      <c r="AD133" s="7"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="AA134" s="6"/>
+      <c r="AB134" s="7"/>
+      <c r="AC134" s="7"/>
+      <c r="AD134" s="7"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="AA135" s="6"/>
+      <c r="AB135" s="7"/>
+      <c r="AC135" s="7"/>
+      <c r="AD135" s="7"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="AA136" s="6"/>
+      <c r="AB136" s="7"/>
+      <c r="AC136" s="7"/>
+      <c r="AD136" s="7"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="AA137" s="6"/>
+      <c r="AB137" s="7"/>
+      <c r="AC137" s="7"/>
+      <c r="AD137" s="7"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="AA138" s="6"/>
+      <c r="AB138" s="7"/>
+      <c r="AC138" s="7"/>
+      <c r="AD138" s="7"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="AA139" s="6"/>
+      <c r="AB139" s="7"/>
+      <c r="AC139" s="7"/>
+      <c r="AD139" s="7"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="AA140" s="6"/>
+      <c r="AB140" s="7"/>
+      <c r="AC140" s="7"/>
+      <c r="AD140" s="7"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="AA141" s="6"/>
+      <c r="AB141" s="7"/>
+      <c r="AC141" s="7"/>
+      <c r="AD141" s="7"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="AA142" s="6"/>
+      <c r="AB142" s="7"/>
+      <c r="AC142" s="7"/>
+      <c r="AD142" s="7"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="AA143" s="6"/>
+      <c r="AB143" s="7"/>
+      <c r="AC143" s="7"/>
+      <c r="AD143" s="7"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="AA144" s="6"/>
+      <c r="AB144" s="7"/>
+      <c r="AC144" s="7"/>
+      <c r="AD144" s="7"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="AA145" s="6"/>
+      <c r="AB145" s="7"/>
+      <c r="AC145" s="7"/>
+      <c r="AD145" s="7"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="AA146" s="6"/>
+      <c r="AB146" s="7"/>
+      <c r="AC146" s="7"/>
+      <c r="AD146" s="7"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="AA147" s="6"/>
+      <c r="AB147" s="7"/>
+      <c r="AC147" s="7"/>
+      <c r="AD147" s="7"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="AA148" s="6"/>
+      <c r="AB148" s="7"/>
+      <c r="AC148" s="7"/>
+      <c r="AD148" s="7"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="AA149" s="6"/>
+      <c r="AB149" s="7"/>
+      <c r="AC149" s="7"/>
+      <c r="AD149" s="7"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="AA150" s="6"/>
+      <c r="AB150" s="7"/>
+      <c r="AC150" s="7"/>
+      <c r="AD150" s="7"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="AA151" s="6"/>
+      <c r="AB151" s="7"/>
+      <c r="AC151" s="7"/>
+      <c r="AD151" s="7"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="AA152" s="6"/>
+      <c r="AB152" s="7"/>
+      <c r="AC152" s="7"/>
+      <c r="AD152" s="7"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="AA153" s="6"/>
+      <c r="AB153" s="7"/>
+      <c r="AC153" s="7"/>
+      <c r="AD153" s="7"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="AA154" s="6"/>
+      <c r="AB154" s="7"/>
+      <c r="AC154" s="7"/>
+      <c r="AD154" s="7"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="AA155" s="6"/>
+      <c r="AB155" s="7"/>
+      <c r="AC155" s="7"/>
+      <c r="AD155" s="7"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="AA156" s="6"/>
+      <c r="AB156" s="7"/>
+      <c r="AC156" s="7"/>
+      <c r="AD156" s="7"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="AA157" s="6"/>
+      <c r="AB157" s="7"/>
+      <c r="AC157" s="7"/>
+      <c r="AD157" s="7"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="AA158" s="6"/>
+      <c r="AB158" s="7"/>
+      <c r="AC158" s="7"/>
+      <c r="AD158" s="7"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="AA159" s="6"/>
+      <c r="AB159" s="7"/>
+      <c r="AC159" s="7"/>
+      <c r="AD159" s="7"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="AA160" s="6"/>
+      <c r="AB160" s="7"/>
+      <c r="AC160" s="7"/>
+      <c r="AD160" s="7"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="AA161" s="6"/>
+      <c r="AB161" s="7"/>
+      <c r="AC161" s="7"/>
+      <c r="AD161" s="7"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="AA162" s="6"/>
+      <c r="AB162" s="7"/>
+      <c r="AC162" s="7"/>
+      <c r="AD162" s="7"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="AA163" s="6"/>
+      <c r="AB163" s="7"/>
+      <c r="AC163" s="7"/>
+      <c r="AD163" s="7"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="AA164" s="6"/>
+      <c r="AB164" s="7"/>
+      <c r="AC164" s="7"/>
+      <c r="AD164" s="7"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="AA165" s="6"/>
+      <c r="AB165" s="7"/>
+      <c r="AC165" s="7"/>
+      <c r="AD165" s="7"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="AA166" s="6"/>
+      <c r="AB166" s="7"/>
+      <c r="AC166" s="7"/>
+      <c r="AD166" s="7"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="AA167" s="6"/>
+      <c r="AB167" s="7"/>
+      <c r="AC167" s="7"/>
+      <c r="AD167" s="7"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="AA168" s="6"/>
+      <c r="AB168" s="7"/>
+      <c r="AC168" s="7"/>
+      <c r="AD168" s="7"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="AA169" s="6"/>
+      <c r="AB169" s="7"/>
+      <c r="AC169" s="7"/>
+      <c r="AD169" s="7"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="AA170" s="6"/>
+      <c r="AB170" s="7"/>
+      <c r="AC170" s="7"/>
+      <c r="AD170" s="7"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="AA171" s="6"/>
+      <c r="AB171" s="7"/>
+      <c r="AC171" s="7"/>
+      <c r="AD171" s="7"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="AA172" s="6"/>
+      <c r="AB172" s="7"/>
+      <c r="AC172" s="7"/>
+      <c r="AD172" s="7"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="AA173" s="6"/>
+      <c r="AB173" s="7"/>
+      <c r="AC173" s="7"/>
+      <c r="AD173" s="7"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="AA174" s="6"/>
+      <c r="AB174" s="7"/>
+      <c r="AC174" s="7"/>
+      <c r="AD174" s="7"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="AA175" s="6"/>
+      <c r="AB175" s="7"/>
+      <c r="AC175" s="7"/>
+      <c r="AD175" s="7"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="AA176" s="6"/>
+      <c r="AB176" s="7"/>
+      <c r="AC176" s="7"/>
+      <c r="AD176" s="7"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="AA177" s="6"/>
+      <c r="AB177" s="7"/>
+      <c r="AC177" s="7"/>
+      <c r="AD177" s="7"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="AA178" s="6"/>
+      <c r="AB178" s="7"/>
+      <c r="AC178" s="7"/>
+      <c r="AD178" s="7"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="AA179" s="6"/>
+      <c r="AB179" s="7"/>
+      <c r="AC179" s="7"/>
+      <c r="AD179" s="7"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="AA180" s="6"/>
+      <c r="AB180" s="7"/>
+      <c r="AC180" s="7"/>
+      <c r="AD180" s="7"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="AA181" s="6"/>
+      <c r="AB181" s="7"/>
+      <c r="AC181" s="7"/>
+      <c r="AD181" s="7"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="AA182" s="6"/>
+      <c r="AB182" s="7"/>
+      <c r="AC182" s="7"/>
+      <c r="AD182" s="7"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="AA183" s="6"/>
+      <c r="AB183" s="7"/>
+      <c r="AC183" s="7"/>
+      <c r="AD183" s="7"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="AA184" s="6"/>
+      <c r="AB184" s="7"/>
+      <c r="AC184" s="7"/>
+      <c r="AD184" s="7"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="AA185" s="6"/>
+      <c r="AB185" s="7"/>
+      <c r="AC185" s="7"/>
+      <c r="AD185" s="7"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="AA186" s="6"/>
+      <c r="AB186" s="7"/>
+      <c r="AC186" s="7"/>
+      <c r="AD186" s="7"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="AA187" s="6"/>
+      <c r="AB187" s="7"/>
+      <c r="AC187" s="7"/>
+      <c r="AD187" s="7"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="AA188" s="6"/>
+      <c r="AB188" s="7"/>
+      <c r="AC188" s="7"/>
+      <c r="AD188" s="7"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="AA189" s="6"/>
+      <c r="AB189" s="7"/>
+      <c r="AC189" s="7"/>
+      <c r="AD189" s="7"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="AA190" s="6"/>
+      <c r="AB190" s="7"/>
+      <c r="AC190" s="7"/>
+      <c r="AD190" s="7"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="AA191" s="6"/>
+      <c r="AB191" s="7"/>
+      <c r="AC191" s="7"/>
+      <c r="AD191" s="7"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="AA192" s="6"/>
+      <c r="AB192" s="7"/>
+      <c r="AC192" s="7"/>
+      <c r="AD192" s="7"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="AA193" s="6"/>
+      <c r="AB193" s="7"/>
+      <c r="AC193" s="7"/>
+      <c r="AD193" s="7"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="AA194" s="6"/>
+      <c r="AB194" s="7"/>
+      <c r="AC194" s="7"/>
+      <c r="AD194" s="7"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="AA195" s="6"/>
+      <c r="AB195" s="7"/>
+      <c r="AC195" s="7"/>
+      <c r="AD195" s="7"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="AA196" s="6"/>
+      <c r="AB196" s="7"/>
+      <c r="AC196" s="7"/>
+      <c r="AD196" s="7"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="AA197" s="6"/>
+      <c r="AB197" s="7"/>
+      <c r="AC197" s="7"/>
+      <c r="AD197" s="7"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="AA198" s="6"/>
+      <c r="AB198" s="7"/>
+      <c r="AC198" s="7"/>
+      <c r="AD198" s="7"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="AA199" s="6"/>
+      <c r="AB199" s="7"/>
+      <c r="AC199" s="7"/>
+      <c r="AD199" s="7"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="AA200" s="6"/>
+      <c r="AB200" s="7"/>
+      <c r="AC200" s="7"/>
+      <c r="AD200" s="7"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="AA201" s="6"/>
+      <c r="AB201" s="7"/>
+      <c r="AC201" s="7"/>
+      <c r="AD201" s="7"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="AA202" s="6"/>
+      <c r="AB202" s="7"/>
+      <c r="AC202" s="7"/>
+      <c r="AD202" s="7"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="AA203" s="6"/>
+      <c r="AB203" s="7"/>
+      <c r="AC203" s="7"/>
+      <c r="AD203" s="7"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="AA204" s="6"/>
+      <c r="AB204" s="7"/>
+      <c r="AC204" s="7"/>
+      <c r="AD204" s="7"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="AA205" s="6"/>
+      <c r="AB205" s="7"/>
+      <c r="AC205" s="7"/>
+      <c r="AD205" s="7"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="AA206" s="6"/>
+      <c r="AB206" s="7"/>
+      <c r="AC206" s="7"/>
+      <c r="AD206" s="7"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="AA207" s="6"/>
+      <c r="AB207" s="7"/>
+      <c r="AC207" s="7"/>
+      <c r="AD207" s="7"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="AA208" s="6"/>
+      <c r="AB208" s="7"/>
+      <c r="AC208" s="7"/>
+      <c r="AD208" s="7"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="AA209" s="6"/>
+      <c r="AB209" s="7"/>
+      <c r="AC209" s="7"/>
+      <c r="AD209" s="7"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="AA210" s="6"/>
+      <c r="AB210" s="7"/>
+      <c r="AC210" s="7"/>
+      <c r="AD210" s="7"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="AA211" s="6"/>
+      <c r="AB211" s="7"/>
+      <c r="AC211" s="7"/>
+      <c r="AD211" s="7"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="AA212" s="6"/>
+      <c r="AB212" s="7"/>
+      <c r="AC212" s="7"/>
+      <c r="AD212" s="7"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="AA213" s="6"/>
+      <c r="AB213" s="7"/>
+      <c r="AC213" s="7"/>
+      <c r="AD213" s="7"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="AA214" s="6"/>
+      <c r="AB214" s="7"/>
+      <c r="AC214" s="7"/>
+      <c r="AD214" s="7"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="AA215" s="6"/>
+      <c r="AB215" s="7"/>
+      <c r="AC215" s="7"/>
+      <c r="AD215" s="7"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="AA216" s="6"/>
+      <c r="AB216" s="7"/>
+      <c r="AC216" s="7"/>
+      <c r="AD216" s="7"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="AA217" s="6"/>
+      <c r="AB217" s="7"/>
+      <c r="AC217" s="7"/>
+      <c r="AD217" s="7"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="AA218" s="6"/>
+      <c r="AB218" s="7"/>
+      <c r="AC218" s="7"/>
+      <c r="AD218" s="7"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="AA219" s="6"/>
+      <c r="AB219" s="7"/>
+      <c r="AC219" s="7"/>
+      <c r="AD219" s="7"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="AA220" s="6"/>
+      <c r="AB220" s="7"/>
+      <c r="AC220" s="7"/>
+      <c r="AD220" s="7"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="AA221" s="6"/>
+      <c r="AB221" s="7"/>
+      <c r="AC221" s="7"/>
+      <c r="AD221" s="7"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="AA222" s="6"/>
+      <c r="AB222" s="7"/>
+      <c r="AC222" s="7"/>
+      <c r="AD222" s="7"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="AA223" s="6"/>
+      <c r="AB223" s="7"/>
+      <c r="AC223" s="7"/>
+      <c r="AD223" s="7"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="AA224" s="6"/>
+      <c r="AB224" s="7"/>
+      <c r="AC224" s="7"/>
+      <c r="AD224" s="7"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="AA225" s="6"/>
+      <c r="AB225" s="7"/>
+      <c r="AC225" s="7"/>
+      <c r="AD225" s="7"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="AA226" s="6"/>
+      <c r="AB226" s="7"/>
+      <c r="AC226" s="7"/>
+      <c r="AD226" s="7"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="AA227" s="6"/>
+      <c r="AB227" s="7"/>
+      <c r="AC227" s="7"/>
+      <c r="AD227" s="7"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="AA228" s="6"/>
+      <c r="AB228" s="7"/>
+      <c r="AC228" s="7"/>
+      <c r="AD228" s="7"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="AA229" s="6"/>
+      <c r="AB229" s="7"/>
+      <c r="AC229" s="7"/>
+      <c r="AD229" s="7"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="AA230" s="6"/>
+      <c r="AB230" s="7"/>
+      <c r="AC230" s="7"/>
+      <c r="AD230" s="7"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="AA231" s="6"/>
+      <c r="AB231" s="7"/>
+      <c r="AC231" s="7"/>
+      <c r="AD231" s="7"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="AA232" s="6"/>
+      <c r="AB232" s="7"/>
+      <c r="AC232" s="7"/>
+      <c r="AD232" s="7"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="AA233" s="6"/>
+      <c r="AB233" s="7"/>
+      <c r="AC233" s="7"/>
+      <c r="AD233" s="7"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="AA234" s="6"/>
+      <c r="AB234" s="7"/>
+      <c r="AC234" s="7"/>
+      <c r="AD234" s="7"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="AA235" s="6"/>
+      <c r="AB235" s="7"/>
+      <c r="AC235" s="7"/>
+      <c r="AD235" s="7"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="AA236" s="6"/>
+      <c r="AB236" s="7"/>
+      <c r="AC236" s="7"/>
+      <c r="AD236" s="7"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="AA237" s="6"/>
+      <c r="AB237" s="7"/>
+      <c r="AC237" s="7"/>
+      <c r="AD237" s="7"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="AA238" s="6"/>
+      <c r="AB238" s="7"/>
+      <c r="AC238" s="7"/>
+      <c r="AD238" s="7"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="AA239" s="6"/>
+      <c r="AB239" s="7"/>
+      <c r="AC239" s="7"/>
+      <c r="AD239" s="7"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="AA240" s="6"/>
+      <c r="AB240" s="7"/>
+      <c r="AC240" s="7"/>
+      <c r="AD240" s="7"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="AA241" s="6"/>
+      <c r="AB241" s="7"/>
+      <c r="AC241" s="7"/>
+      <c r="AD241" s="7"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="AA242" s="6"/>
+      <c r="AB242" s="7"/>
+      <c r="AC242" s="7"/>
+      <c r="AD242" s="7"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="AA243" s="6"/>
+      <c r="AB243" s="7"/>
+      <c r="AC243" s="7"/>
+      <c r="AD243" s="7"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="AA244" s="6"/>
+      <c r="AB244" s="7"/>
+      <c r="AC244" s="7"/>
+      <c r="AD244" s="7"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="AA245" s="6"/>
+      <c r="AB245" s="7"/>
+      <c r="AC245" s="7"/>
+      <c r="AD245" s="7"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="AA246" s="6"/>
+      <c r="AB246" s="7"/>
+      <c r="AC246" s="7"/>
+      <c r="AD246" s="7"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="AA247" s="6"/>
+      <c r="AB247" s="7"/>
+      <c r="AC247" s="7"/>
+      <c r="AD247" s="7"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="AA248" s="6"/>
+      <c r="AB248" s="7"/>
+      <c r="AC248" s="7"/>
+      <c r="AD248" s="7"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="AA249" s="6"/>
+      <c r="AB249" s="7"/>
+      <c r="AC249" s="7"/>
+      <c r="AD249" s="7"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="AA250" s="6"/>
+      <c r="AB250" s="7"/>
+      <c r="AC250" s="7"/>
+      <c r="AD250" s="7"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="AA251" s="6"/>
+      <c r="AB251" s="7"/>
+      <c r="AC251" s="7"/>
+      <c r="AD251" s="7"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="AA252" s="6"/>
+      <c r="AB252" s="7"/>
+      <c r="AC252" s="7"/>
+      <c r="AD252" s="7"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="AA253" s="6"/>
+      <c r="AB253" s="7"/>
+      <c r="AC253" s="7"/>
+      <c r="AD253" s="7"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="AA254" s="6"/>
+      <c r="AB254" s="7"/>
+      <c r="AC254" s="7"/>
+      <c r="AD254" s="7"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="AA255" s="6"/>
+      <c r="AB255" s="7"/>
+      <c r="AC255" s="7"/>
+      <c r="AD255" s="7"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="AA256" s="6"/>
+      <c r="AB256" s="7"/>
+      <c r="AC256" s="7"/>
+      <c r="AD256" s="7"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="AA257" s="6"/>
+      <c r="AB257" s="7"/>
+      <c r="AC257" s="7"/>
+      <c r="AD257" s="7"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="AA258" s="6"/>
+      <c r="AB258" s="7"/>
+      <c r="AC258" s="7"/>
+      <c r="AD258" s="7"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="AA259" s="6"/>
+      <c r="AB259" s="7"/>
+      <c r="AC259" s="7"/>
+      <c r="AD259" s="7"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="AA260" s="6"/>
+      <c r="AB260" s="7"/>
+      <c r="AC260" s="7"/>
+      <c r="AD260" s="7"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="AA261" s="6"/>
+      <c r="AB261" s="7"/>
+      <c r="AC261" s="7"/>
+      <c r="AD261" s="7"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="AA262" s="6"/>
+      <c r="AB262" s="7"/>
+      <c r="AC262" s="7"/>
+      <c r="AD262" s="7"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="AA263" s="6"/>
+      <c r="AB263" s="7"/>
+      <c r="AC263" s="7"/>
+      <c r="AD263" s="7"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="AA264" s="6"/>
+      <c r="AB264" s="7"/>
+      <c r="AC264" s="7"/>
+      <c r="AD264" s="7"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="AA265" s="6"/>
+      <c r="AB265" s="7"/>
+      <c r="AC265" s="7"/>
+      <c r="AD265" s="7"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="AA266" s="6"/>
+      <c r="AB266" s="7"/>
+      <c r="AC266" s="7"/>
+      <c r="AD266" s="7"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="AA267" s="6"/>
+      <c r="AB267" s="7"/>
+      <c r="AC267" s="7"/>
+      <c r="AD267" s="7"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="AA268" s="6"/>
+      <c r="AB268" s="7"/>
+      <c r="AC268" s="7"/>
+      <c r="AD268" s="7"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="AA269" s="6"/>
+      <c r="AB269" s="7"/>
+      <c r="AC269" s="7"/>
+      <c r="AD269" s="7"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="AA270" s="6"/>
+      <c r="AB270" s="7"/>
+      <c r="AC270" s="7"/>
+      <c r="AD270" s="7"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="AA271" s="6"/>
+      <c r="AB271" s="7"/>
+      <c r="AC271" s="7"/>
+      <c r="AD271" s="7"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="AA272" s="6"/>
+      <c r="AB272" s="7"/>
+      <c r="AC272" s="7"/>
+      <c r="AD272" s="7"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="AA273" s="6"/>
+      <c r="AB273" s="7"/>
+      <c r="AC273" s="7"/>
+      <c r="AD273" s="7"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="AA274" s="6"/>
+      <c r="AB274" s="7"/>
+      <c r="AC274" s="7"/>
+      <c r="AD274" s="7"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="AA275" s="6"/>
+      <c r="AB275" s="7"/>
+      <c r="AC275" s="7"/>
+      <c r="AD275" s="7"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="AA276" s="6"/>
+      <c r="AB276" s="7"/>
+      <c r="AC276" s="7"/>
+      <c r="AD276" s="7"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="AA277" s="6"/>
+      <c r="AB277" s="7"/>
+      <c r="AC277" s="7"/>
+      <c r="AD277" s="7"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="AA278" s="6"/>
+      <c r="AB278" s="7"/>
+      <c r="AC278" s="7"/>
+      <c r="AD278" s="7"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="AA279" s="6"/>
+      <c r="AB279" s="7"/>
+      <c r="AC279" s="7"/>
+      <c r="AD279" s="7"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="AA280" s="6"/>
+      <c r="AB280" s="7"/>
+      <c r="AC280" s="7"/>
+      <c r="AD280" s="7"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="AA281" s="6"/>
+      <c r="AB281" s="7"/>
+      <c r="AC281" s="7"/>
+      <c r="AD281" s="7"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="AA282" s="6"/>
+      <c r="AB282" s="7"/>
+      <c r="AC282" s="7"/>
+      <c r="AD282" s="7"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="AA283" s="6"/>
+      <c r="AB283" s="7"/>
+      <c r="AC283" s="7"/>
+      <c r="AD283" s="7"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="AA284" s="6"/>
+      <c r="AB284" s="7"/>
+      <c r="AC284" s="7"/>
+      <c r="AD284" s="7"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="AA285" s="6"/>
+      <c r="AB285" s="7"/>
+      <c r="AC285" s="7"/>
+      <c r="AD285" s="7"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="AA286" s="6"/>
+      <c r="AB286" s="7"/>
+      <c r="AC286" s="7"/>
+      <c r="AD286" s="7"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="AA287" s="6"/>
+      <c r="AB287" s="7"/>
+      <c r="AC287" s="7"/>
+      <c r="AD287" s="7"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="AA288" s="6"/>
+      <c r="AB288" s="7"/>
+      <c r="AC288" s="7"/>
+      <c r="AD288" s="7"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="AA289" s="6"/>
+      <c r="AB289" s="7"/>
+      <c r="AC289" s="7"/>
+      <c r="AD289" s="7"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="AA290" s="6"/>
+      <c r="AB290" s="7"/>
+      <c r="AC290" s="7"/>
+      <c r="AD290" s="7"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="AA291" s="6"/>
+      <c r="AB291" s="7"/>
+      <c r="AC291" s="7"/>
+      <c r="AD291" s="7"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="AA292" s="6"/>
+      <c r="AB292" s="7"/>
+      <c r="AC292" s="7"/>
+      <c r="AD292" s="7"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="AA293" s="6"/>
+      <c r="AB293" s="7"/>
+      <c r="AC293" s="7"/>
+      <c r="AD293" s="7"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="AA294" s="6"/>
+      <c r="AB294" s="7"/>
+      <c r="AC294" s="7"/>
+      <c r="AD294" s="7"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="AA295" s="6"/>
+      <c r="AB295" s="7"/>
+      <c r="AC295" s="7"/>
+      <c r="AD295" s="7"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="AA296" s="6"/>
+      <c r="AB296" s="7"/>
+      <c r="AC296" s="7"/>
+      <c r="AD296" s="7"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="AA297" s="6"/>
+      <c r="AB297" s="7"/>
+      <c r="AC297" s="7"/>
+      <c r="AD297" s="7"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="AA298" s="6"/>
+      <c r="AB298" s="7"/>
+      <c r="AC298" s="7"/>
+      <c r="AD298" s="7"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="AA299" s="6"/>
+      <c r="AB299" s="7"/>
+      <c r="AC299" s="7"/>
+      <c r="AD299" s="7"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="AA300" s="6"/>
+      <c r="AB300" s="7"/>
+      <c r="AC300" s="7"/>
+      <c r="AD300" s="7"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="AA301" s="6"/>
+      <c r="AB301" s="7"/>
+      <c r="AC301" s="7"/>
+      <c r="AD301" s="7"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="AA302" s="6"/>
+      <c r="AB302" s="7"/>
+      <c r="AC302" s="7"/>
+      <c r="AD302" s="7"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="AA303" s="6"/>
+      <c r="AB303" s="7"/>
+      <c r="AC303" s="7"/>
+      <c r="AD303" s="7"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="AA304" s="6"/>
+      <c r="AB304" s="7"/>
+      <c r="AC304" s="7"/>
+      <c r="AD304" s="7"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="AA305" s="6"/>
+      <c r="AB305" s="7"/>
+      <c r="AC305" s="7"/>
+      <c r="AD305" s="7"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="AA306" s="6"/>
+      <c r="AB306" s="7"/>
+      <c r="AC306" s="7"/>
+      <c r="AD306" s="7"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="AA307" s="6"/>
+      <c r="AB307" s="7"/>
+      <c r="AC307" s="7"/>
+      <c r="AD307" s="7"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="AA308" s="6"/>
+      <c r="AB308" s="7"/>
+      <c r="AC308" s="7"/>
+      <c r="AD308" s="7"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="AA309" s="6"/>
+      <c r="AB309" s="7"/>
+      <c r="AC309" s="7"/>
+      <c r="AD309" s="7"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="AA310" s="6"/>
+      <c r="AB310" s="7"/>
+      <c r="AC310" s="7"/>
+      <c r="AD310" s="7"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="AA311" s="6"/>
+      <c r="AB311" s="7"/>
+      <c r="AC311" s="7"/>
+      <c r="AD311" s="7"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="AA312" s="6"/>
+      <c r="AB312" s="7"/>
+      <c r="AC312" s="7"/>
+      <c r="AD312" s="7"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="AA313" s="6"/>
+      <c r="AB313" s="7"/>
+      <c r="AC313" s="7"/>
+      <c r="AD313" s="7"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="AA314" s="6"/>
+      <c r="AB314" s="7"/>
+      <c r="AC314" s="7"/>
+      <c r="AD314" s="7"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="AA315" s="6"/>
+      <c r="AB315" s="7"/>
+      <c r="AC315" s="7"/>
+      <c r="AD315" s="7"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="AA316" s="6"/>
+      <c r="AB316" s="7"/>
+      <c r="AC316" s="7"/>
+      <c r="AD316" s="7"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="AA317" s="6"/>
+      <c r="AB317" s="7"/>
+      <c r="AC317" s="7"/>
+      <c r="AD317" s="7"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="AA318" s="6"/>
+      <c r="AB318" s="7"/>
+      <c r="AC318" s="7"/>
+      <c r="AD318" s="7"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="AA319" s="6"/>
+      <c r="AB319" s="7"/>
+      <c r="AC319" s="7"/>
+      <c r="AD319" s="7"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="AA320" s="6"/>
+      <c r="AB320" s="7"/>
+      <c r="AC320" s="7"/>
+      <c r="AD320" s="7"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="AA321" s="6"/>
+      <c r="AB321" s="7"/>
+      <c r="AC321" s="7"/>
+      <c r="AD321" s="7"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="AA322" s="6"/>
+      <c r="AB322" s="7"/>
+      <c r="AC322" s="7"/>
+      <c r="AD322" s="7"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="AA323" s="6"/>
+      <c r="AB323" s="7"/>
+      <c r="AC323" s="7"/>
+      <c r="AD323" s="7"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="AA324" s="6"/>
+      <c r="AB324" s="7"/>
+      <c r="AC324" s="7"/>
+      <c r="AD324" s="7"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="AA325" s="6"/>
+      <c r="AB325" s="7"/>
+      <c r="AC325" s="7"/>
+      <c r="AD325" s="7"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="AA326" s="6"/>
+      <c r="AB326" s="7"/>
+      <c r="AC326" s="7"/>
+      <c r="AD326" s="7"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="AA327" s="6"/>
+      <c r="AB327" s="7"/>
+      <c r="AC327" s="7"/>
+      <c r="AD327" s="7"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="AA328" s="6"/>
+      <c r="AB328" s="7"/>
+      <c r="AC328" s="7"/>
+      <c r="AD328" s="7"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="AA329" s="6"/>
+      <c r="AB329" s="7"/>
+      <c r="AC329" s="7"/>
+      <c r="AD329" s="7"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="AA330" s="6"/>
+      <c r="AB330" s="7"/>
+      <c r="AC330" s="7"/>
+      <c r="AD330" s="7"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="AA331" s="6"/>
+      <c r="AB331" s="7"/>
+      <c r="AC331" s="7"/>
+      <c r="AD331" s="7"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="AA332" s="6"/>
+      <c r="AB332" s="7"/>
+      <c r="AC332" s="7"/>
+      <c r="AD332" s="7"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="AA333" s="6"/>
+      <c r="AB333" s="7"/>
+      <c r="AC333" s="7"/>
+      <c r="AD333" s="7"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="AA334" s="6"/>
+      <c r="AB334" s="7"/>
+      <c r="AC334" s="7"/>
+      <c r="AD334" s="7"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="AA335" s="6"/>
+      <c r="AB335" s="7"/>
+      <c r="AC335" s="7"/>
+      <c r="AD335" s="7"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="AA336" s="6"/>
+      <c r="AB336" s="7"/>
+      <c r="AC336" s="7"/>
+      <c r="AD336" s="7"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="AA337" s="6"/>
+      <c r="AB337" s="7"/>
+      <c r="AC337" s="7"/>
+      <c r="AD337" s="7"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="AA338" s="6"/>
+      <c r="AB338" s="7"/>
+      <c r="AC338" s="7"/>
+      <c r="AD338" s="7"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="AA339" s="6"/>
+      <c r="AB339" s="7"/>
+      <c r="AC339" s="7"/>
+      <c r="AD339" s="7"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="AA340" s="6"/>
+      <c r="AB340" s="7"/>
+      <c r="AC340" s="7"/>
+      <c r="AD340" s="7"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="AA341" s="6"/>
+      <c r="AB341" s="7"/>
+      <c r="AC341" s="7"/>
+      <c r="AD341" s="7"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="AA342" s="6"/>
+      <c r="AB342" s="7"/>
+      <c r="AC342" s="7"/>
+      <c r="AD342" s="7"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="AA343" s="6"/>
+      <c r="AB343" s="7"/>
+      <c r="AC343" s="7"/>
+      <c r="AD343" s="7"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="AA344" s="6"/>
+      <c r="AB344" s="7"/>
+      <c r="AC344" s="7"/>
+      <c r="AD344" s="7"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="AA345" s="6"/>
+      <c r="AB345" s="7"/>
+      <c r="AC345" s="7"/>
+      <c r="AD345" s="7"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="AA346" s="6"/>
+      <c r="AB346" s="7"/>
+      <c r="AC346" s="7"/>
+      <c r="AD346" s="7"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="AA347" s="6"/>
+      <c r="AB347" s="7"/>
+      <c r="AC347" s="7"/>
+      <c r="AD347" s="7"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="AA348" s="6"/>
+      <c r="AB348" s="7"/>
+      <c r="AC348" s="7"/>
+      <c r="AD348" s="7"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="AA349" s="6"/>
+      <c r="AB349" s="7"/>
+      <c r="AC349" s="7"/>
+      <c r="AD349" s="7"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="AA350" s="6"/>
+      <c r="AB350" s="7"/>
+      <c r="AC350" s="7"/>
+      <c r="AD350" s="7"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="AA351" s="6"/>
+      <c r="AB351" s="7"/>
+      <c r="AC351" s="7"/>
+      <c r="AD351" s="7"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="AA352" s="6"/>
+      <c r="AB352" s="7"/>
+      <c r="AC352" s="7"/>
+      <c r="AD352" s="7"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="AA353" s="6"/>
+      <c r="AB353" s="7"/>
+      <c r="AC353" s="7"/>
+      <c r="AD353" s="7"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="AA354" s="6"/>
+      <c r="AB354" s="7"/>
+      <c r="AC354" s="7"/>
+      <c r="AD354" s="7"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="AA355" s="6"/>
+      <c r="AB355" s="7"/>
+      <c r="AC355" s="7"/>
+      <c r="AD355" s="7"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="AA356" s="6"/>
+      <c r="AB356" s="7"/>
+      <c r="AC356" s="7"/>
+      <c r="AD356" s="7"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="AA357" s="6"/>
+      <c r="AB357" s="7"/>
+      <c r="AC357" s="7"/>
+      <c r="AD357" s="7"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="AA358" s="6"/>
+      <c r="AB358" s="7"/>
+      <c r="AC358" s="7"/>
+      <c r="AD358" s="7"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="AA359" s="6"/>
+      <c r="AB359" s="7"/>
+      <c r="AC359" s="7"/>
+      <c r="AD359" s="7"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="AA360" s="6"/>
+      <c r="AB360" s="7"/>
+      <c r="AC360" s="7"/>
+      <c r="AD360" s="7"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="AA361" s="6"/>
+      <c r="AB361" s="7"/>
+      <c r="AC361" s="7"/>
+      <c r="AD361" s="7"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="AA362" s="6"/>
+      <c r="AB362" s="7"/>
+      <c r="AC362" s="7"/>
+      <c r="AD362" s="7"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="AA363" s="6"/>
+      <c r="AB363" s="7"/>
+      <c r="AC363" s="7"/>
+      <c r="AD363" s="7"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="AA364" s="6"/>
+      <c r="AB364" s="7"/>
+      <c r="AC364" s="7"/>
+      <c r="AD364" s="7"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="AA365" s="6"/>
+      <c r="AB365" s="7"/>
+      <c r="AC365" s="7"/>
+      <c r="AD365" s="7"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="AA366" s="6"/>
+      <c r="AB366" s="7"/>
+      <c r="AC366" s="7"/>
+      <c r="AD366" s="7"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="AA367" s="6"/>
+      <c r="AB367" s="7"/>
+      <c r="AC367" s="7"/>
+      <c r="AD367" s="7"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="AA368" s="6"/>
+      <c r="AB368" s="7"/>
+      <c r="AC368" s="7"/>
+      <c r="AD368" s="7"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="AA369" s="6"/>
+      <c r="AB369" s="7"/>
+      <c r="AC369" s="7"/>
+      <c r="AD369" s="7"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="AA370" s="6"/>
+      <c r="AB370" s="7"/>
+      <c r="AC370" s="7"/>
+      <c r="AD370" s="7"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="AA371" s="6"/>
+      <c r="AB371" s="7"/>
+      <c r="AC371" s="7"/>
+      <c r="AD371" s="7"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="AA372" s="6"/>
+      <c r="AB372" s="7"/>
+      <c r="AC372" s="7"/>
+      <c r="AD372" s="7"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="AA373" s="6"/>
+      <c r="AB373" s="7"/>
+      <c r="AC373" s="7"/>
+      <c r="AD373" s="7"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="AA374" s="6"/>
+      <c r="AB374" s="7"/>
+      <c r="AC374" s="7"/>
+      <c r="AD374" s="7"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="AA375" s="6"/>
+      <c r="AB375" s="7"/>
+      <c r="AC375" s="7"/>
+      <c r="AD375" s="7"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="AA376" s="6"/>
+      <c r="AB376" s="7"/>
+      <c r="AC376" s="7"/>
+      <c r="AD376" s="7"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="AA377" s="6"/>
+      <c r="AB377" s="7"/>
+      <c r="AC377" s="7"/>
+      <c r="AD377" s="7"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="AA378" s="6"/>
+      <c r="AB378" s="7"/>
+      <c r="AC378" s="7"/>
+      <c r="AD378" s="7"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="AA379" s="6"/>
+      <c r="AB379" s="7"/>
+      <c r="AC379" s="7"/>
+      <c r="AD379" s="7"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="AA380" s="6"/>
+      <c r="AB380" s="7"/>
+      <c r="AC380" s="7"/>
+      <c r="AD380" s="7"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="AA381" s="6"/>
+      <c r="AB381" s="7"/>
+      <c r="AC381" s="7"/>
+      <c r="AD381" s="7"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="AA382" s="6"/>
+      <c r="AB382" s="7"/>
+      <c r="AC382" s="7"/>
+      <c r="AD382" s="7"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="AA383" s="6"/>
+      <c r="AB383" s="7"/>
+      <c r="AC383" s="7"/>
+      <c r="AD383" s="7"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="AA384" s="6"/>
+      <c r="AB384" s="7"/>
+      <c r="AC384" s="7"/>
+      <c r="AD384" s="7"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="AA385" s="6"/>
+      <c r="AB385" s="7"/>
+      <c r="AC385" s="7"/>
+      <c r="AD385" s="7"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="AA386" s="6"/>
+      <c r="AB386" s="7"/>
+      <c r="AC386" s="7"/>
+      <c r="AD386" s="7"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="AA387" s="6"/>
+      <c r="AB387" s="7"/>
+      <c r="AC387" s="7"/>
+      <c r="AD387" s="7"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="AA388" s="6"/>
+      <c r="AB388" s="7"/>
+      <c r="AC388" s="7"/>
+      <c r="AD388" s="7"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="AA389" s="6"/>
+      <c r="AB389" s="7"/>
+      <c r="AC389" s="7"/>
+      <c r="AD389" s="7"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="AA390" s="6"/>
+      <c r="AB390" s="7"/>
+      <c r="AC390" s="7"/>
+      <c r="AD390" s="7"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="AA391" s="6"/>
+      <c r="AB391" s="7"/>
+      <c r="AC391" s="7"/>
+      <c r="AD391" s="7"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="AA392" s="6"/>
+      <c r="AB392" s="7"/>
+      <c r="AC392" s="7"/>
+      <c r="AD392" s="7"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="AA393" s="6"/>
+      <c r="AB393" s="7"/>
+      <c r="AC393" s="7"/>
+      <c r="AD393" s="7"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="AA394" s="6"/>
+      <c r="AB394" s="7"/>
+      <c r="AC394" s="7"/>
+      <c r="AD394" s="7"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="AA395" s="6"/>
+      <c r="AB395" s="7"/>
+      <c r="AC395" s="7"/>
+      <c r="AD395" s="7"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="AA396" s="6"/>
+      <c r="AB396" s="7"/>
+      <c r="AC396" s="7"/>
+      <c r="AD396" s="7"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="AA397" s="6"/>
+      <c r="AB397" s="7"/>
+      <c r="AC397" s="7"/>
+      <c r="AD397" s="7"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="AA398" s="6"/>
+      <c r="AB398" s="7"/>
+      <c r="AC398" s="7"/>
+      <c r="AD398" s="7"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="AA399" s="6"/>
+      <c r="AB399" s="7"/>
+      <c r="AC399" s="7"/>
+      <c r="AD399" s="7"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="AA400" s="6"/>
+      <c r="AB400" s="7"/>
+      <c r="AC400" s="7"/>
+      <c r="AD400" s="7"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="AA401" s="6"/>
+      <c r="AB401" s="7"/>
+      <c r="AC401" s="7"/>
+      <c r="AD401" s="7"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="AA402" s="6"/>
+      <c r="AB402" s="7"/>
+      <c r="AC402" s="7"/>
+      <c r="AD402" s="7"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="AA403" s="6"/>
+      <c r="AB403" s="7"/>
+      <c r="AC403" s="7"/>
+      <c r="AD403" s="7"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="AA404" s="6"/>
+      <c r="AB404" s="7"/>
+      <c r="AC404" s="7"/>
+      <c r="AD404" s="7"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="AA405" s="6"/>
+      <c r="AB405" s="7"/>
+      <c r="AC405" s="7"/>
+      <c r="AD405" s="7"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="AA406" s="6"/>
+      <c r="AB406" s="7"/>
+      <c r="AC406" s="7"/>
+      <c r="AD406" s="7"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="AA407" s="6"/>
+      <c r="AB407" s="7"/>
+      <c r="AC407" s="7"/>
+      <c r="AD407" s="7"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="AA408" s="6"/>
+      <c r="AB408" s="7"/>
+      <c r="AC408" s="7"/>
+      <c r="AD408" s="7"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="AA409" s="6"/>
+      <c r="AB409" s="7"/>
+      <c r="AC409" s="7"/>
+      <c r="AD409" s="7"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="AA410" s="6"/>
+      <c r="AB410" s="7"/>
+      <c r="AC410" s="7"/>
+      <c r="AD410" s="7"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="AA411" s="6"/>
+      <c r="AB411" s="7"/>
+      <c r="AC411" s="7"/>
+      <c r="AD411" s="7"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="AA412" s="6"/>
+      <c r="AB412" s="7"/>
+      <c r="AC412" s="7"/>
+      <c r="AD412" s="7"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="AA413" s="6"/>
+      <c r="AB413" s="7"/>
+      <c r="AC413" s="7"/>
+      <c r="AD413" s="7"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="AA414" s="6"/>
+      <c r="AB414" s="7"/>
+      <c r="AC414" s="7"/>
+      <c r="AD414" s="7"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="AA415" s="6"/>
+      <c r="AB415" s="7"/>
+      <c r="AC415" s="7"/>
+      <c r="AD415" s="7"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="AA416" s="6"/>
+      <c r="AB416" s="7"/>
+      <c r="AC416" s="7"/>
+      <c r="AD416" s="7"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="AA417" s="6"/>
+      <c r="AB417" s="7"/>
+      <c r="AC417" s="7"/>
+      <c r="AD417" s="7"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="AA418" s="6"/>
+      <c r="AB418" s="7"/>
+      <c r="AC418" s="7"/>
+      <c r="AD418" s="7"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="AA419" s="6"/>
+      <c r="AB419" s="7"/>
+      <c r="AC419" s="7"/>
+      <c r="AD419" s="7"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="AA420" s="6"/>
+      <c r="AB420" s="7"/>
+      <c r="AC420" s="7"/>
+      <c r="AD420" s="7"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="AA421" s="6"/>
+      <c r="AB421" s="7"/>
+      <c r="AC421" s="7"/>
+      <c r="AD421" s="7"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="AA422" s="6"/>
+      <c r="AB422" s="7"/>
+      <c r="AC422" s="7"/>
+      <c r="AD422" s="7"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="AA423" s="6"/>
+      <c r="AB423" s="7"/>
+      <c r="AC423" s="7"/>
+      <c r="AD423" s="7"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="AA424" s="6"/>
+      <c r="AB424" s="7"/>
+      <c r="AC424" s="7"/>
+      <c r="AD424" s="7"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="AA425" s="6"/>
+      <c r="AB425" s="7"/>
+      <c r="AC425" s="7"/>
+      <c r="AD425" s="7"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="AA426" s="6"/>
+      <c r="AB426" s="7"/>
+      <c r="AC426" s="7"/>
+      <c r="AD426" s="7"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="AA427" s="6"/>
+      <c r="AB427" s="7"/>
+      <c r="AC427" s="7"/>
+      <c r="AD427" s="7"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="AA428" s="6"/>
+      <c r="AB428" s="7"/>
+      <c r="AC428" s="7"/>
+      <c r="AD428" s="7"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="AA429" s="6"/>
+      <c r="AB429" s="7"/>
+      <c r="AC429" s="7"/>
+      <c r="AD429" s="7"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="AA430" s="6"/>
+      <c r="AB430" s="7"/>
+      <c r="AC430" s="7"/>
+      <c r="AD430" s="7"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="AA431" s="6"/>
+      <c r="AB431" s="7"/>
+      <c r="AC431" s="7"/>
+      <c r="AD431" s="7"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="AA432" s="6"/>
+      <c r="AB432" s="7"/>
+      <c r="AC432" s="7"/>
+      <c r="AD432" s="7"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="AA433" s="6"/>
+      <c r="AB433" s="7"/>
+      <c r="AC433" s="7"/>
+      <c r="AD433" s="7"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="AA434" s="6"/>
+      <c r="AB434" s="7"/>
+      <c r="AC434" s="7"/>
+      <c r="AD434" s="7"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="AA435" s="6"/>
+      <c r="AB435" s="7"/>
+      <c r="AC435" s="7"/>
+      <c r="AD435" s="7"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="AA436" s="6"/>
+      <c r="AB436" s="7"/>
+      <c r="AC436" s="7"/>
+      <c r="AD436" s="7"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="AA437" s="6"/>
+      <c r="AB437" s="7"/>
+      <c r="AC437" s="7"/>
+      <c r="AD437" s="7"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="AA438" s="6"/>
+      <c r="AB438" s="7"/>
+      <c r="AC438" s="7"/>
+      <c r="AD438" s="7"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="AA439" s="6"/>
+      <c r="AB439" s="7"/>
+      <c r="AC439" s="7"/>
+      <c r="AD439" s="7"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="AA440" s="6"/>
+      <c r="AB440" s="7"/>
+      <c r="AC440" s="7"/>
+      <c r="AD440" s="7"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="AA441" s="6"/>
+      <c r="AB441" s="7"/>
+      <c r="AC441" s="7"/>
+      <c r="AD441" s="7"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="AA442" s="6"/>
+      <c r="AB442" s="7"/>
+      <c r="AC442" s="7"/>
+      <c r="AD442" s="7"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="AA443" s="6"/>
+      <c r="AB443" s="7"/>
+      <c r="AC443" s="7"/>
+      <c r="AD443" s="7"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="AA444" s="6"/>
+      <c r="AB444" s="7"/>
+      <c r="AC444" s="7"/>
+      <c r="AD444" s="7"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="AA445" s="6"/>
+      <c r="AB445" s="7"/>
+      <c r="AC445" s="7"/>
+      <c r="AD445" s="7"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="AA446" s="6"/>
+      <c r="AB446" s="7"/>
+      <c r="AC446" s="7"/>
+      <c r="AD446" s="7"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="AA447" s="6"/>
+      <c r="AB447" s="7"/>
+      <c r="AC447" s="7"/>
+      <c r="AD447" s="7"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="AA448" s="6"/>
+      <c r="AB448" s="7"/>
+      <c r="AC448" s="7"/>
+      <c r="AD448" s="7"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="AA449" s="6"/>
+      <c r="AB449" s="7"/>
+      <c r="AC449" s="7"/>
+      <c r="AD449" s="7"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="AA450" s="6"/>
+      <c r="AB450" s="7"/>
+      <c r="AC450" s="7"/>
+      <c r="AD450" s="7"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="AA451" s="6"/>
+      <c r="AB451" s="7"/>
+      <c r="AC451" s="7"/>
+      <c r="AD451" s="7"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="AA452" s="6"/>
+      <c r="AB452" s="7"/>
+      <c r="AC452" s="7"/>
+      <c r="AD452" s="7"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="AA453" s="6"/>
+      <c r="AB453" s="7"/>
+      <c r="AC453" s="7"/>
+      <c r="AD453" s="7"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="AA454" s="6"/>
+      <c r="AB454" s="7"/>
+      <c r="AC454" s="7"/>
+      <c r="AD454" s="7"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="AA455" s="6"/>
+      <c r="AB455" s="7"/>
+      <c r="AC455" s="7"/>
+      <c r="AD455" s="7"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="AA456" s="6"/>
+      <c r="AB456" s="7"/>
+      <c r="AC456" s="7"/>
+      <c r="AD456" s="7"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="AA457" s="6"/>
+      <c r="AB457" s="7"/>
+      <c r="AC457" s="7"/>
+      <c r="AD457" s="7"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="AA458" s="6"/>
+      <c r="AB458" s="7"/>
+      <c r="AC458" s="7"/>
+      <c r="AD458" s="7"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="AA459" s="6"/>
+      <c r="AB459" s="7"/>
+      <c r="AC459" s="7"/>
+      <c r="AD459" s="7"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="AA460" s="6"/>
+      <c r="AB460" s="7"/>
+      <c r="AC460" s="7"/>
+      <c r="AD460" s="7"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="AA461" s="6"/>
+      <c r="AB461" s="7"/>
+      <c r="AC461" s="7"/>
+      <c r="AD461" s="7"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="AA462" s="6"/>
+      <c r="AB462" s="7"/>
+      <c r="AC462" s="7"/>
+      <c r="AD462" s="7"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="AA463" s="6"/>
+      <c r="AB463" s="7"/>
+      <c r="AC463" s="7"/>
+      <c r="AD463" s="7"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="AA464" s="6"/>
+      <c r="AB464" s="7"/>
+      <c r="AC464" s="7"/>
+      <c r="AD464" s="7"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="AA465" s="6"/>
+      <c r="AB465" s="7"/>
+      <c r="AC465" s="7"/>
+      <c r="AD465" s="7"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="AA466" s="6"/>
+      <c r="AB466" s="7"/>
+      <c r="AC466" s="7"/>
+      <c r="AD466" s="7"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="AA467" s="6"/>
+      <c r="AB467" s="7"/>
+      <c r="AC467" s="7"/>
+      <c r="AD467" s="7"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="AA468" s="6"/>
+      <c r="AB468" s="7"/>
+      <c r="AC468" s="7"/>
+      <c r="AD468" s="7"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="AA469" s="6"/>
+      <c r="AB469" s="7"/>
+      <c r="AC469" s="7"/>
+      <c r="AD469" s="7"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="AA470" s="6"/>
+      <c r="AB470" s="7"/>
+      <c r="AC470" s="7"/>
+      <c r="AD470" s="7"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="AA471" s="6"/>
+      <c r="AB471" s="7"/>
+      <c r="AC471" s="7"/>
+      <c r="AD471" s="7"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="AA472" s="6"/>
+      <c r="AB472" s="7"/>
+      <c r="AC472" s="7"/>
+      <c r="AD472" s="7"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="AA473" s="6"/>
+      <c r="AB473" s="7"/>
+      <c r="AC473" s="7"/>
+      <c r="AD473" s="7"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="AA474" s="6"/>
+      <c r="AB474" s="7"/>
+      <c r="AC474" s="7"/>
+      <c r="AD474" s="7"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="AA475" s="6"/>
+      <c r="AB475" s="7"/>
+      <c r="AC475" s="7"/>
+      <c r="AD475" s="7"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="AA476" s="6"/>
+      <c r="AB476" s="7"/>
+      <c r="AC476" s="7"/>
+      <c r="AD476" s="7"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="AA477" s="6"/>
+      <c r="AB477" s="7"/>
+      <c r="AC477" s="7"/>
+      <c r="AD477" s="7"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="AA478" s="6"/>
+      <c r="AB478" s="7"/>
+      <c r="AC478" s="7"/>
+      <c r="AD478" s="7"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="AA479" s="6"/>
+      <c r="AB479" s="7"/>
+      <c r="AC479" s="7"/>
+      <c r="AD479" s="7"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="AA480" s="6"/>
+      <c r="AB480" s="7"/>
+      <c r="AC480" s="7"/>
+      <c r="AD480" s="7"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="AA481" s="6"/>
+      <c r="AB481" s="7"/>
+      <c r="AC481" s="7"/>
+      <c r="AD481" s="7"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="AA482" s="6"/>
+      <c r="AB482" s="7"/>
+      <c r="AC482" s="7"/>
+      <c r="AD482" s="7"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="AA483" s="6"/>
+      <c r="AB483" s="7"/>
+      <c r="AC483" s="7"/>
+      <c r="AD483" s="7"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="AA484" s="6"/>
+      <c r="AB484" s="7"/>
+      <c r="AC484" s="7"/>
+      <c r="AD484" s="7"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="AA485" s="6"/>
+      <c r="AB485" s="7"/>
+      <c r="AC485" s="7"/>
+      <c r="AD485" s="7"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="AA486" s="6"/>
+      <c r="AB486" s="7"/>
+      <c r="AC486" s="7"/>
+      <c r="AD486" s="7"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="AA487" s="6"/>
+      <c r="AB487" s="7"/>
+      <c r="AC487" s="7"/>
+      <c r="AD487" s="7"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="AA488" s="6"/>
+      <c r="AB488" s="7"/>
+      <c r="AC488" s="7"/>
+      <c r="AD488" s="7"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="AA489" s="6"/>
+      <c r="AB489" s="7"/>
+      <c r="AC489" s="7"/>
+      <c r="AD489" s="7"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="AA490" s="6"/>
+      <c r="AB490" s="7"/>
+      <c r="AC490" s="7"/>
+      <c r="AD490" s="7"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="AA491" s="6"/>
+      <c r="AB491" s="7"/>
+      <c r="AC491" s="7"/>
+      <c r="AD491" s="7"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="AA492" s="6"/>
+      <c r="AB492" s="7"/>
+      <c r="AC492" s="7"/>
+      <c r="AD492" s="7"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="AA493" s="6"/>
+      <c r="AB493" s="7"/>
+      <c r="AC493" s="7"/>
+      <c r="AD493" s="7"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="AA494" s="6"/>
+      <c r="AB494" s="7"/>
+      <c r="AC494" s="7"/>
+      <c r="AD494" s="7"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="AA495" s="6"/>
+      <c r="AB495" s="7"/>
+      <c r="AC495" s="7"/>
+      <c r="AD495" s="7"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="AA496" s="6"/>
+      <c r="AB496" s="7"/>
+      <c r="AC496" s="7"/>
+      <c r="AD496" s="7"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="AA497" s="6"/>
+      <c r="AB497" s="7"/>
+      <c r="AC497" s="7"/>
+      <c r="AD497" s="7"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="AA498" s="6"/>
+      <c r="AB498" s="7"/>
+      <c r="AC498" s="7"/>
+      <c r="AD498" s="7"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="AA499" s="6"/>
+      <c r="AB499" s="7"/>
+      <c r="AC499" s="7"/>
+      <c r="AD499" s="7"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="AA500" s="6"/>
+      <c r="AB500" s="7"/>
+      <c r="AC500" s="7"/>
+      <c r="AD500" s="7"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="AA501" s="6"/>
+      <c r="AB501" s="7"/>
+      <c r="AC501" s="7"/>
+      <c r="AD501" s="7"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="AA502" s="6"/>
+      <c r="AB502" s="7"/>
+      <c r="AC502" s="7"/>
+      <c r="AD502" s="7"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="AA503" s="6"/>
+      <c r="AB503" s="7"/>
+      <c r="AC503" s="7"/>
+      <c r="AD503" s="7"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="AA504" s="6"/>
+      <c r="AB504" s="7"/>
+      <c r="AC504" s="7"/>
+      <c r="AD504" s="7"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="AA505" s="6"/>
+      <c r="AB505" s="7"/>
+      <c r="AC505" s="7"/>
+      <c r="AD505" s="7"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="AA506" s="6"/>
+      <c r="AB506" s="7"/>
+      <c r="AC506" s="7"/>
+      <c r="AD506" s="7"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="AA507" s="6"/>
+      <c r="AB507" s="7"/>
+      <c r="AC507" s="7"/>
+      <c r="AD507" s="7"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="AA508" s="6"/>
+      <c r="AB508" s="7"/>
+      <c r="AC508" s="7"/>
+      <c r="AD508" s="7"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="AA509" s="6"/>
+      <c r="AB509" s="7"/>
+      <c r="AC509" s="7"/>
+      <c r="AD509" s="7"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="AA510" s="6"/>
+      <c r="AB510" s="7"/>
+      <c r="AC510" s="7"/>
+      <c r="AD510" s="7"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="AA511" s="6"/>
+      <c r="AB511" s="7"/>
+      <c r="AC511" s="7"/>
+      <c r="AD511" s="7"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="AA512" s="6"/>
+      <c r="AB512" s="7"/>
+      <c r="AC512" s="7"/>
+      <c r="AD512" s="7"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="AA513" s="6"/>
+      <c r="AB513" s="7"/>
+      <c r="AC513" s="7"/>
+      <c r="AD513" s="7"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="AA514" s="6"/>
+      <c r="AB514" s="7"/>
+      <c r="AC514" s="7"/>
+      <c r="AD514" s="7"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="AA515" s="6"/>
+      <c r="AB515" s="7"/>
+      <c r="AC515" s="7"/>
+      <c r="AD515" s="7"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="AA516" s="6"/>
+      <c r="AB516" s="7"/>
+      <c r="AC516" s="7"/>
+      <c r="AD516" s="7"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="AA517" s="6"/>
+      <c r="AB517" s="7"/>
+      <c r="AC517" s="7"/>
+      <c r="AD517" s="7"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="AA518" s="6"/>
+      <c r="AB518" s="7"/>
+      <c r="AC518" s="7"/>
+      <c r="AD518" s="7"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="AA519" s="6"/>
+      <c r="AB519" s="7"/>
+      <c r="AC519" s="7"/>
+      <c r="AD519" s="7"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="AA520" s="6"/>
+      <c r="AB520" s="7"/>
+      <c r="AC520" s="7"/>
+      <c r="AD520" s="7"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="AA521" s="6"/>
+      <c r="AB521" s="7"/>
+      <c r="AC521" s="7"/>
+      <c r="AD521" s="7"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="AA522" s="6"/>
+      <c r="AB522" s="7"/>
+      <c r="AC522" s="7"/>
+      <c r="AD522" s="7"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="AA523" s="6"/>
+      <c r="AB523" s="7"/>
+      <c r="AC523" s="7"/>
+      <c r="AD523" s="7"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="AA524" s="6"/>
+      <c r="AB524" s="7"/>
+      <c r="AC524" s="7"/>
+      <c r="AD524" s="7"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="AA525" s="6"/>
+      <c r="AB525" s="7"/>
+      <c r="AC525" s="7"/>
+      <c r="AD525" s="7"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="AA526" s="6"/>
+      <c r="AB526" s="7"/>
+      <c r="AC526" s="7"/>
+      <c r="AD526" s="7"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="AA527" s="6"/>
+      <c r="AB527" s="7"/>
+      <c r="AC527" s="7"/>
+      <c r="AD527" s="7"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="AA528" s="6"/>
+      <c r="AB528" s="7"/>
+      <c r="AC528" s="7"/>
+      <c r="AD528" s="7"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="AA529" s="6"/>
+      <c r="AB529" s="7"/>
+      <c r="AC529" s="7"/>
+      <c r="AD529" s="7"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="AA530" s="6"/>
+      <c r="AB530" s="7"/>
+      <c r="AC530" s="7"/>
+      <c r="AD530" s="7"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="AA531" s="6"/>
+      <c r="AB531" s="7"/>
+      <c r="AC531" s="7"/>
+      <c r="AD531" s="7"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="AA532" s="6"/>
+      <c r="AB532" s="7"/>
+      <c r="AC532" s="7"/>
+      <c r="AD532" s="7"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="AA533" s="6"/>
+      <c r="AB533" s="7"/>
+      <c r="AC533" s="7"/>
+      <c r="AD533" s="7"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="AA534" s="6"/>
+      <c r="AB534" s="7"/>
+      <c r="AC534" s="7"/>
+      <c r="AD534" s="7"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="AA535" s="6"/>
+      <c r="AB535" s="7"/>
+      <c r="AC535" s="7"/>
+      <c r="AD535" s="7"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="AA536" s="6"/>
+      <c r="AB536" s="7"/>
+      <c r="AC536" s="7"/>
+      <c r="AD536" s="7"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="AA537" s="6"/>
+      <c r="AB537" s="7"/>
+      <c r="AC537" s="7"/>
+      <c r="AD537" s="7"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="AA538" s="6"/>
+      <c r="AB538" s="7"/>
+      <c r="AC538" s="7"/>
+      <c r="AD538" s="7"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="AA539" s="6"/>
+      <c r="AB539" s="7"/>
+      <c r="AC539" s="7"/>
+      <c r="AD539" s="7"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="AA540" s="6"/>
+      <c r="AB540" s="7"/>
+      <c r="AC540" s="7"/>
+      <c r="AD540" s="7"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="AA541" s="6"/>
+      <c r="AB541" s="7"/>
+      <c r="AC541" s="7"/>
+      <c r="AD541" s="7"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="AA542" s="6"/>
+      <c r="AB542" s="7"/>
+      <c r="AC542" s="7"/>
+      <c r="AD542" s="7"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="AA543" s="6"/>
+      <c r="AB543" s="7"/>
+      <c r="AC543" s="7"/>
+      <c r="AD543" s="7"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="AA544" s="6"/>
+      <c r="AB544" s="7"/>
+      <c r="AC544" s="7"/>
+      <c r="AD544" s="7"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="AA545" s="6"/>
+      <c r="AB545" s="7"/>
+      <c r="AC545" s="7"/>
+      <c r="AD545" s="7"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="AA546" s="6"/>
+      <c r="AB546" s="7"/>
+      <c r="AC546" s="7"/>
+      <c r="AD546" s="7"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="AA547" s="6"/>
+      <c r="AB547" s="7"/>
+      <c r="AC547" s="7"/>
+      <c r="AD547" s="7"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="AA548" s="6"/>
+      <c r="AB548" s="7"/>
+      <c r="AC548" s="7"/>
+      <c r="AD548" s="7"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="AA549" s="6"/>
+      <c r="AB549" s="7"/>
+      <c r="AC549" s="7"/>
+      <c r="AD549" s="7"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="AA550" s="6"/>
+      <c r="AB550" s="7"/>
+      <c r="AC550" s="7"/>
+      <c r="AD550" s="7"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="AA551" s="6"/>
+      <c r="AB551" s="7"/>
+      <c r="AC551" s="7"/>
+      <c r="AD551" s="7"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="AA552" s="6"/>
+      <c r="AB552" s="7"/>
+      <c r="AC552" s="7"/>
+      <c r="AD552" s="7"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="AA553" s="6"/>
+      <c r="AB553" s="7"/>
+      <c r="AC553" s="7"/>
+      <c r="AD553" s="7"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="AA554" s="6"/>
+      <c r="AB554" s="7"/>
+      <c r="AC554" s="7"/>
+      <c r="AD554" s="7"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="AA555" s="6"/>
+      <c r="AB555" s="7"/>
+      <c r="AC555" s="7"/>
+      <c r="AD555" s="7"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="AA556" s="6"/>
+      <c r="AB556" s="7"/>
+      <c r="AC556" s="7"/>
+      <c r="AD556" s="7"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="AA557" s="6"/>
+      <c r="AB557" s="7"/>
+      <c r="AC557" s="7"/>
+      <c r="AD557" s="7"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="AA558" s="6"/>
+      <c r="AB558" s="7"/>
+      <c r="AC558" s="7"/>
+      <c r="AD558" s="7"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="AA559" s="6"/>
+      <c r="AB559" s="7"/>
+      <c r="AC559" s="7"/>
+      <c r="AD559" s="7"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="AA560" s="6"/>
+      <c r="AB560" s="7"/>
+      <c r="AC560" s="7"/>
+      <c r="AD560" s="7"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="AA561" s="6"/>
+      <c r="AB561" s="7"/>
+      <c r="AC561" s="7"/>
+      <c r="AD561" s="7"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="AA562" s="6"/>
+      <c r="AB562" s="7"/>
+      <c r="AC562" s="7"/>
+      <c r="AD562" s="7"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="AA563" s="6"/>
+      <c r="AB563" s="7"/>
+      <c r="AC563" s="7"/>
+      <c r="AD563" s="7"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="AA564" s="6"/>
+      <c r="AB564" s="7"/>
+      <c r="AC564" s="7"/>
+      <c r="AD564" s="7"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="AA565" s="6"/>
+      <c r="AB565" s="7"/>
+      <c r="AC565" s="7"/>
+      <c r="AD565" s="7"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="AA566" s="6"/>
+      <c r="AB566" s="7"/>
+      <c r="AC566" s="7"/>
+      <c r="AD566" s="7"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="AA567" s="6"/>
+      <c r="AB567" s="7"/>
+      <c r="AC567" s="7"/>
+      <c r="AD567" s="7"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="AA568" s="6"/>
+      <c r="AB568" s="7"/>
+      <c r="AC568" s="7"/>
+      <c r="AD568" s="7"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="AA569" s="6"/>
+      <c r="AB569" s="7"/>
+      <c r="AC569" s="7"/>
+      <c r="AD569" s="7"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="AA570" s="6"/>
+      <c r="AB570" s="7"/>
+      <c r="AC570" s="7"/>
+      <c r="AD570" s="7"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="AA571" s="6"/>
+      <c r="AB571" s="7"/>
+      <c r="AC571" s="7"/>
+      <c r="AD571" s="7"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="AA572" s="6"/>
+      <c r="AB572" s="7"/>
+      <c r="AC572" s="7"/>
+      <c r="AD572" s="7"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="AA573" s="6"/>
+      <c r="AB573" s="7"/>
+      <c r="AC573" s="7"/>
+      <c r="AD573" s="7"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="AA574" s="6"/>
+      <c r="AB574" s="7"/>
+      <c r="AC574" s="7"/>
+      <c r="AD574" s="7"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="AA575" s="6"/>
+      <c r="AB575" s="7"/>
+      <c r="AC575" s="7"/>
+      <c r="AD575" s="7"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="AA576" s="6"/>
+      <c r="AB576" s="7"/>
+      <c r="AC576" s="7"/>
+      <c r="AD576" s="7"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="AA577" s="6"/>
+      <c r="AB577" s="7"/>
+      <c r="AC577" s="7"/>
+      <c r="AD577" s="7"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="AA578" s="6"/>
+      <c r="AB578" s="7"/>
+      <c r="AC578" s="7"/>
+      <c r="AD578" s="7"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="AA579" s="6"/>
+      <c r="AB579" s="7"/>
+      <c r="AC579" s="7"/>
+      <c r="AD579" s="7"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="AA580" s="6"/>
+      <c r="AB580" s="7"/>
+      <c r="AC580" s="7"/>
+      <c r="AD580" s="7"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="AA581" s="6"/>
+      <c r="AB581" s="7"/>
+      <c r="AC581" s="7"/>
+      <c r="AD581" s="7"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="AA582" s="6"/>
+      <c r="AB582" s="7"/>
+      <c r="AC582" s="7"/>
+      <c r="AD582" s="7"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="AA583" s="6"/>
+      <c r="AB583" s="7"/>
+      <c r="AC583" s="7"/>
+      <c r="AD583" s="7"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="AA584" s="6"/>
+      <c r="AB584" s="7"/>
+      <c r="AC584" s="7"/>
+      <c r="AD584" s="7"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="AA585" s="6"/>
+      <c r="AB585" s="7"/>
+      <c r="AC585" s="7"/>
+      <c r="AD585" s="7"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="AA586" s="6"/>
+      <c r="AB586" s="7"/>
+      <c r="AC586" s="7"/>
+      <c r="AD586" s="7"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="AA587" s="6"/>
+      <c r="AB587" s="7"/>
+      <c r="AC587" s="7"/>
+      <c r="AD587" s="7"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="AA588" s="6"/>
+      <c r="AB588" s="7"/>
+      <c r="AC588" s="7"/>
+      <c r="AD588" s="7"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="AA589" s="6"/>
+      <c r="AB589" s="7"/>
+      <c r="AC589" s="7"/>
+      <c r="AD589" s="7"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="AA590" s="6"/>
+      <c r="AB590" s="7"/>
+      <c r="AC590" s="7"/>
+      <c r="AD590" s="7"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="AA591" s="6"/>
+      <c r="AB591" s="7"/>
+      <c r="AC591" s="7"/>
+      <c r="AD591" s="7"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="AA592" s="6"/>
+      <c r="AB592" s="7"/>
+      <c r="AC592" s="7"/>
+      <c r="AD592" s="7"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="AA593" s="6"/>
+      <c r="AB593" s="7"/>
+      <c r="AC593" s="7"/>
+      <c r="AD593" s="7"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="AA594" s="6"/>
+      <c r="AB594" s="7"/>
+      <c r="AC594" s="7"/>
+      <c r="AD594" s="7"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="AA595" s="6"/>
+      <c r="AB595" s="7"/>
+      <c r="AC595" s="7"/>
+      <c r="AD595" s="7"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="AA596" s="6"/>
+      <c r="AB596" s="7"/>
+      <c r="AC596" s="7"/>
+      <c r="AD596" s="7"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="AA597" s="6"/>
+      <c r="AB597" s="7"/>
+      <c r="AC597" s="7"/>
+      <c r="AD597" s="7"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="AA598" s="6"/>
+      <c r="AB598" s="7"/>
+      <c r="AC598" s="7"/>
+      <c r="AD598" s="7"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="AA599" s="6"/>
+      <c r="AB599" s="7"/>
+      <c r="AC599" s="7"/>
+      <c r="AD599" s="7"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="AA600" s="6"/>
+      <c r="AB600" s="7"/>
+      <c r="AC600" s="7"/>
+      <c r="AD600" s="7"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="AA601" s="6"/>
+      <c r="AB601" s="7"/>
+      <c r="AC601" s="7"/>
+      <c r="AD601" s="7"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="AA602" s="6"/>
+      <c r="AB602" s="7"/>
+      <c r="AC602" s="7"/>
+      <c r="AD602" s="7"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="AA603" s="6"/>
+      <c r="AB603" s="7"/>
+      <c r="AC603" s="7"/>
+      <c r="AD603" s="7"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="AA604" s="6"/>
+      <c r="AB604" s="7"/>
+      <c r="AC604" s="7"/>
+      <c r="AD604" s="7"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="AA605" s="6"/>
+      <c r="AB605" s="7"/>
+      <c r="AC605" s="7"/>
+      <c r="AD605" s="7"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="AA606" s="6"/>
+      <c r="AB606" s="7"/>
+      <c r="AC606" s="7"/>
+      <c r="AD606" s="7"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="AA607" s="6"/>
+      <c r="AB607" s="7"/>
+      <c r="AC607" s="7"/>
+      <c r="AD607" s="7"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="AA608" s="6"/>
+      <c r="AB608" s="7"/>
+      <c r="AC608" s="7"/>
+      <c r="AD608" s="7"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="AA609" s="6"/>
+      <c r="AB609" s="7"/>
+      <c r="AC609" s="7"/>
+      <c r="AD609" s="7"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="AA610" s="6"/>
+      <c r="AB610" s="7"/>
+      <c r="AC610" s="7"/>
+      <c r="AD610" s="7"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="AA611" s="6"/>
+      <c r="AB611" s="7"/>
+      <c r="AC611" s="7"/>
+      <c r="AD611" s="7"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="AA612" s="6"/>
+      <c r="AB612" s="7"/>
+      <c r="AC612" s="7"/>
+      <c r="AD612" s="7"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="AA613" s="6"/>
+      <c r="AB613" s="7"/>
+      <c r="AC613" s="7"/>
+      <c r="AD613" s="7"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="AA614" s="6"/>
+      <c r="AB614" s="7"/>
+      <c r="AC614" s="7"/>
+      <c r="AD614" s="7"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="AA615" s="6"/>
+      <c r="AB615" s="7"/>
+      <c r="AC615" s="7"/>
+      <c r="AD615" s="7"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="AA616" s="6"/>
+      <c r="AB616" s="7"/>
+      <c r="AC616" s="7"/>
+      <c r="AD616" s="7"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="AA617" s="6"/>
+      <c r="AB617" s="7"/>
+      <c r="AC617" s="7"/>
+      <c r="AD617" s="7"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="AA618" s="6"/>
+      <c r="AB618" s="7"/>
+      <c r="AC618" s="7"/>
+      <c r="AD618" s="7"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="AA619" s="6"/>
+      <c r="AB619" s="7"/>
+      <c r="AC619" s="7"/>
+      <c r="AD619" s="7"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="AA620" s="6"/>
+      <c r="AB620" s="7"/>
+      <c r="AC620" s="7"/>
+      <c r="AD620" s="7"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="AA621" s="6"/>
+      <c r="AB621" s="7"/>
+      <c r="AC621" s="7"/>
+      <c r="AD621" s="7"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="AA622" s="6"/>
+      <c r="AB622" s="7"/>
+      <c r="AC622" s="7"/>
+      <c r="AD622" s="7"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="AA623" s="6"/>
+      <c r="AB623" s="7"/>
+      <c r="AC623" s="7"/>
+      <c r="AD623" s="7"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="AA624" s="6"/>
+      <c r="AB624" s="7"/>
+      <c r="AC624" s="7"/>
+      <c r="AD624" s="7"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="AA625" s="6"/>
+      <c r="AB625" s="7"/>
+      <c r="AC625" s="7"/>
+      <c r="AD625" s="7"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="AA626" s="6"/>
+      <c r="AB626" s="7"/>
+      <c r="AC626" s="7"/>
+      <c r="AD626" s="7"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="AA627" s="6"/>
+      <c r="AB627" s="7"/>
+      <c r="AC627" s="7"/>
+      <c r="AD627" s="7"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="AA628" s="6"/>
+      <c r="AB628" s="7"/>
+      <c r="AC628" s="7"/>
+      <c r="AD628" s="7"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="AA629" s="6"/>
+      <c r="AB629" s="7"/>
+      <c r="AC629" s="7"/>
+      <c r="AD629" s="7"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="AA630" s="6"/>
+      <c r="AB630" s="7"/>
+      <c r="AC630" s="7"/>
+      <c r="AD630" s="7"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="AA631" s="6"/>
+      <c r="AB631" s="7"/>
+      <c r="AC631" s="7"/>
+      <c r="AD631" s="7"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="AA632" s="6"/>
+      <c r="AB632" s="7"/>
+      <c r="AC632" s="7"/>
+      <c r="AD632" s="7"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="AA633" s="6"/>
+      <c r="AB633" s="7"/>
+      <c r="AC633" s="7"/>
+      <c r="AD633" s="7"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="AA634" s="6"/>
+      <c r="AB634" s="7"/>
+      <c r="AC634" s="7"/>
+      <c r="AD634" s="7"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="AA635" s="6"/>
+      <c r="AB635" s="7"/>
+      <c r="AC635" s="7"/>
+      <c r="AD635" s="7"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="AA636" s="6"/>
+      <c r="AB636" s="7"/>
+      <c r="AC636" s="7"/>
+      <c r="AD636" s="7"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="AA637" s="6"/>
+      <c r="AB637" s="7"/>
+      <c r="AC637" s="7"/>
+      <c r="AD637" s="7"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="AA638" s="6"/>
+      <c r="AB638" s="7"/>
+      <c r="AC638" s="7"/>
+      <c r="AD638" s="7"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="AA639" s="6"/>
+      <c r="AB639" s="7"/>
+      <c r="AC639" s="7"/>
+      <c r="AD639" s="7"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="AA640" s="6"/>
+      <c r="AB640" s="7"/>
+      <c r="AC640" s="7"/>
+      <c r="AD640" s="7"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="AA641" s="6"/>
+      <c r="AB641" s="7"/>
+      <c r="AC641" s="7"/>
+      <c r="AD641" s="7"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="AA642" s="6"/>
+      <c r="AB642" s="7"/>
+      <c r="AC642" s="7"/>
+      <c r="AD642" s="7"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="AA643" s="6"/>
+      <c r="AB643" s="7"/>
+      <c r="AC643" s="7"/>
+      <c r="AD643" s="7"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="AA644" s="6"/>
+      <c r="AB644" s="7"/>
+      <c r="AC644" s="7"/>
+      <c r="AD644" s="7"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="AA645" s="6"/>
+      <c r="AB645" s="7"/>
+      <c r="AC645" s="7"/>
+      <c r="AD645" s="7"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="AA646" s="6"/>
+      <c r="AB646" s="7"/>
+      <c r="AC646" s="7"/>
+      <c r="AD646" s="7"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="AA647" s="6"/>
+      <c r="AB647" s="7"/>
+      <c r="AC647" s="7"/>
+      <c r="AD647" s="7"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="AA648" s="6"/>
+      <c r="AB648" s="7"/>
+      <c r="AC648" s="7"/>
+      <c r="AD648" s="7"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="AA649" s="6"/>
+      <c r="AB649" s="7"/>
+      <c r="AC649" s="7"/>
+      <c r="AD649" s="7"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="AA650" s="6"/>
+      <c r="AB650" s="7"/>
+      <c r="AC650" s="7"/>
+      <c r="AD650" s="7"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="AA651" s="6"/>
+      <c r="AB651" s="7"/>
+      <c r="AC651" s="7"/>
+      <c r="AD651" s="7"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="AA652" s="6"/>
+      <c r="AB652" s="7"/>
+      <c r="AC652" s="7"/>
+      <c r="AD652" s="7"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="AA653" s="6"/>
+      <c r="AB653" s="7"/>
+      <c r="AC653" s="7"/>
+      <c r="AD653" s="7"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="AA654" s="6"/>
+      <c r="AB654" s="7"/>
+      <c r="AC654" s="7"/>
+      <c r="AD654" s="7"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="AA655" s="6"/>
+      <c r="AB655" s="7"/>
+      <c r="AC655" s="7"/>
+      <c r="AD655" s="7"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="AA656" s="6"/>
+      <c r="AB656" s="7"/>
+      <c r="AC656" s="7"/>
+      <c r="AD656" s="7"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="AA657" s="6"/>
+      <c r="AB657" s="7"/>
+      <c r="AC657" s="7"/>
+      <c r="AD657" s="7"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="AA658" s="6"/>
+      <c r="AB658" s="7"/>
+      <c r="AC658" s="7"/>
+      <c r="AD658" s="7"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="AA659" s="6"/>
+      <c r="AB659" s="7"/>
+      <c r="AC659" s="7"/>
+      <c r="AD659" s="7"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="AA660" s="6"/>
+      <c r="AB660" s="7"/>
+      <c r="AC660" s="7"/>
+      <c r="AD660" s="7"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="AA661" s="6"/>
+      <c r="AB661" s="7"/>
+      <c r="AC661" s="7"/>
+      <c r="AD661" s="7"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="AA662" s="6"/>
+      <c r="AB662" s="7"/>
+      <c r="AC662" s="7"/>
+      <c r="AD662" s="7"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="AA663" s="6"/>
+      <c r="AB663" s="7"/>
+      <c r="AC663" s="7"/>
+      <c r="AD663" s="7"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="AA664" s="6"/>
+      <c r="AB664" s="7"/>
+      <c r="AC664" s="7"/>
+      <c r="AD664" s="7"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="AA665" s="6"/>
+      <c r="AB665" s="7"/>
+      <c r="AC665" s="7"/>
+      <c r="AD665" s="7"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="AA666" s="6"/>
+      <c r="AB666" s="7"/>
+      <c r="AC666" s="7"/>
+      <c r="AD666" s="7"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="AA667" s="6"/>
+      <c r="AB667" s="7"/>
+      <c r="AC667" s="7"/>
+      <c r="AD667" s="7"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="AA668" s="6"/>
+      <c r="AB668" s="7"/>
+      <c r="AC668" s="7"/>
+      <c r="AD668" s="7"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="AA669" s="6"/>
+      <c r="AB669" s="7"/>
+      <c r="AC669" s="7"/>
+      <c r="AD669" s="7"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="AA670" s="6"/>
+      <c r="AB670" s="7"/>
+      <c r="AC670" s="7"/>
+      <c r="AD670" s="7"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="AA671" s="6"/>
+      <c r="AB671" s="7"/>
+      <c r="AC671" s="7"/>
+      <c r="AD671" s="7"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="AA672" s="6"/>
+      <c r="AB672" s="7"/>
+      <c r="AC672" s="7"/>
+      <c r="AD672" s="7"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="AA673" s="6"/>
+      <c r="AB673" s="7"/>
+      <c r="AC673" s="7"/>
+      <c r="AD673" s="7"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="AA674" s="6"/>
+      <c r="AB674" s="7"/>
+      <c r="AC674" s="7"/>
+      <c r="AD674" s="7"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="AA675" s="6"/>
+      <c r="AB675" s="7"/>
+      <c r="AC675" s="7"/>
+      <c r="AD675" s="7"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="AA676" s="6"/>
+      <c r="AB676" s="7"/>
+      <c r="AC676" s="7"/>
+      <c r="AD676" s="7"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="AA677" s="6"/>
+      <c r="AB677" s="7"/>
+      <c r="AC677" s="7"/>
+      <c r="AD677" s="7"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="AA678" s="6"/>
+      <c r="AB678" s="7"/>
+      <c r="AC678" s="7"/>
+      <c r="AD678" s="7"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="AA679" s="6"/>
+      <c r="AB679" s="7"/>
+      <c r="AC679" s="7"/>
+      <c r="AD679" s="7"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="AA680" s="6"/>
+      <c r="AB680" s="7"/>
+      <c r="AC680" s="7"/>
+      <c r="AD680" s="7"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="AA681" s="6"/>
+      <c r="AB681" s="7"/>
+      <c r="AC681" s="7"/>
+      <c r="AD681" s="7"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="AA682" s="6"/>
+      <c r="AB682" s="7"/>
+      <c r="AC682" s="7"/>
+      <c r="AD682" s="7"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="AA683" s="6"/>
+      <c r="AB683" s="7"/>
+      <c r="AC683" s="7"/>
+      <c r="AD683" s="7"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="AA684" s="6"/>
+      <c r="AB684" s="7"/>
+      <c r="AC684" s="7"/>
+      <c r="AD684" s="7"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="AA685" s="6"/>
+      <c r="AB685" s="7"/>
+      <c r="AC685" s="7"/>
+      <c r="AD685" s="7"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="AA686" s="6"/>
+      <c r="AB686" s="7"/>
+      <c r="AC686" s="7"/>
+      <c r="AD686" s="7"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="AA687" s="6"/>
+      <c r="AB687" s="7"/>
+      <c r="AC687" s="7"/>
+      <c r="AD687" s="7"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="AA688" s="6"/>
+      <c r="AB688" s="7"/>
+      <c r="AC688" s="7"/>
+      <c r="AD688" s="7"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="AA689" s="6"/>
+      <c r="AB689" s="7"/>
+      <c r="AC689" s="7"/>
+      <c r="AD689" s="7"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="AA690" s="6"/>
+      <c r="AB690" s="7"/>
+      <c r="AC690" s="7"/>
+      <c r="AD690" s="7"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="AA691" s="6"/>
+      <c r="AB691" s="7"/>
+      <c r="AC691" s="7"/>
+      <c r="AD691" s="7"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="AA692" s="6"/>
+      <c r="AB692" s="7"/>
+      <c r="AC692" s="7"/>
+      <c r="AD692" s="7"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="AA693" s="6"/>
+      <c r="AB693" s="7"/>
+      <c r="AC693" s="7"/>
+      <c r="AD693" s="7"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="AA694" s="6"/>
+      <c r="AB694" s="7"/>
+      <c r="AC694" s="7"/>
+      <c r="AD694" s="7"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="AA695" s="6"/>
+      <c r="AB695" s="7"/>
+      <c r="AC695" s="7"/>
+      <c r="AD695" s="7"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="AA696" s="6"/>
+      <c r="AB696" s="7"/>
+      <c r="AC696" s="7"/>
+      <c r="AD696" s="7"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="AA697" s="6"/>
+      <c r="AB697" s="7"/>
+      <c r="AC697" s="7"/>
+      <c r="AD697" s="7"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="AA698" s="6"/>
+      <c r="AB698" s="7"/>
+      <c r="AC698" s="7"/>
+      <c r="AD698" s="7"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="AA699" s="6"/>
+      <c r="AB699" s="7"/>
+      <c r="AC699" s="7"/>
+      <c r="AD699" s="7"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="AA700" s="6"/>
+      <c r="AB700" s="7"/>
+      <c r="AC700" s="7"/>
+      <c r="AD700" s="7"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="AA701" s="6"/>
+      <c r="AB701" s="7"/>
+      <c r="AC701" s="7"/>
+      <c r="AD701" s="7"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="AA702" s="6"/>
+      <c r="AB702" s="7"/>
+      <c r="AC702" s="7"/>
+      <c r="AD702" s="7"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="AA703" s="6"/>
+      <c r="AB703" s="7"/>
+      <c r="AC703" s="7"/>
+      <c r="AD703" s="7"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="AA704" s="6"/>
+      <c r="AB704" s="7"/>
+      <c r="AC704" s="7"/>
+      <c r="AD704" s="7"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="AA705" s="6"/>
+      <c r="AB705" s="7"/>
+      <c r="AC705" s="7"/>
+      <c r="AD705" s="7"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="AA706" s="6"/>
+      <c r="AB706" s="7"/>
+      <c r="AC706" s="7"/>
+      <c r="AD706" s="7"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="AA707" s="6"/>
+      <c r="AB707" s="7"/>
+      <c r="AC707" s="7"/>
+      <c r="AD707" s="7"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="AA708" s="6"/>
+      <c r="AB708" s="7"/>
+      <c r="AC708" s="7"/>
+      <c r="AD708" s="7"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="AA709" s="6"/>
+      <c r="AB709" s="7"/>
+      <c r="AC709" s="7"/>
+      <c r="AD709" s="7"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="AA710" s="6"/>
+      <c r="AB710" s="7"/>
+      <c r="AC710" s="7"/>
+      <c r="AD710" s="7"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="AA711" s="6"/>
+      <c r="AB711" s="7"/>
+      <c r="AC711" s="7"/>
+      <c r="AD711" s="7"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="AA712" s="6"/>
+      <c r="AB712" s="7"/>
+      <c r="AC712" s="7"/>
+      <c r="AD712" s="7"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="AA713" s="6"/>
+      <c r="AB713" s="7"/>
+      <c r="AC713" s="7"/>
+      <c r="AD713" s="7"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="AA714" s="6"/>
+      <c r="AB714" s="7"/>
+      <c r="AC714" s="7"/>
+      <c r="AD714" s="7"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="AA715" s="6"/>
+      <c r="AB715" s="7"/>
+      <c r="AC715" s="7"/>
+      <c r="AD715" s="7"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="AA716" s="6"/>
+      <c r="AB716" s="7"/>
+      <c r="AC716" s="7"/>
+      <c r="AD716" s="7"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="AA717" s="6"/>
+      <c r="AB717" s="7"/>
+      <c r="AC717" s="7"/>
+      <c r="AD717" s="7"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="AA718" s="6"/>
+      <c r="AB718" s="7"/>
+      <c r="AC718" s="7"/>
+      <c r="AD718" s="7"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="AA719" s="6"/>
+      <c r="AB719" s="7"/>
+      <c r="AC719" s="7"/>
+      <c r="AD719" s="7"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="AA720" s="6"/>
+      <c r="AB720" s="7"/>
+      <c r="AC720" s="7"/>
+      <c r="AD720" s="7"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="AA721" s="6"/>
+      <c r="AB721" s="7"/>
+      <c r="AC721" s="7"/>
+      <c r="AD721" s="7"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="AA722" s="6"/>
+      <c r="AB722" s="7"/>
+      <c r="AC722" s="7"/>
+      <c r="AD722" s="7"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="AA723" s="6"/>
+      <c r="AB723" s="7"/>
+      <c r="AC723" s="7"/>
+      <c r="AD723" s="7"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="AA724" s="6"/>
+      <c r="AB724" s="7"/>
+      <c r="AC724" s="7"/>
+      <c r="AD724" s="7"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="AA725" s="6"/>
+      <c r="AB725" s="7"/>
+      <c r="AC725" s="7"/>
+      <c r="AD725" s="7"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="AA726" s="6"/>
+      <c r="AB726" s="7"/>
+      <c r="AC726" s="7"/>
+      <c r="AD726" s="7"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="AA727" s="6"/>
+      <c r="AB727" s="7"/>
+      <c r="AC727" s="7"/>
+      <c r="AD727" s="7"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="AA728" s="6"/>
+      <c r="AB728" s="7"/>
+      <c r="AC728" s="7"/>
+      <c r="AD728" s="7"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="AA729" s="6"/>
+      <c r="AB729" s="7"/>
+      <c r="AC729" s="7"/>
+      <c r="AD729" s="7"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="AA730" s="6"/>
+      <c r="AB730" s="7"/>
+      <c r="AC730" s="7"/>
+      <c r="AD730" s="7"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="AA731" s="6"/>
+      <c r="AB731" s="7"/>
+      <c r="AC731" s="7"/>
+      <c r="AD731" s="7"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="AA732" s="6"/>
+      <c r="AB732" s="7"/>
+      <c r="AC732" s="7"/>
+      <c r="AD732" s="7"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="AA733" s="6"/>
+      <c r="AB733" s="7"/>
+      <c r="AC733" s="7"/>
+      <c r="AD733" s="7"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="AA734" s="6"/>
+      <c r="AB734" s="7"/>
+      <c r="AC734" s="7"/>
+      <c r="AD734" s="7"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="AA735" s="6"/>
+      <c r="AB735" s="7"/>
+      <c r="AC735" s="7"/>
+      <c r="AD735" s="7"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="AA736" s="6"/>
+      <c r="AB736" s="7"/>
+      <c r="AC736" s="7"/>
+      <c r="AD736" s="7"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="AA737" s="6"/>
+      <c r="AB737" s="7"/>
+      <c r="AC737" s="7"/>
+      <c r="AD737" s="7"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="AA738" s="6"/>
+      <c r="AB738" s="7"/>
+      <c r="AC738" s="7"/>
+      <c r="AD738" s="7"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="AA739" s="6"/>
+      <c r="AB739" s="7"/>
+      <c r="AC739" s="7"/>
+      <c r="AD739" s="7"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="AA740" s="6"/>
+      <c r="AB740" s="7"/>
+      <c r="AC740" s="7"/>
+      <c r="AD740" s="7"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="AA741" s="6"/>
+      <c r="AB741" s="7"/>
+      <c r="AC741" s="7"/>
+      <c r="AD741" s="7"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="AA742" s="6"/>
+      <c r="AB742" s="7"/>
+      <c r="AC742" s="7"/>
+      <c r="AD742" s="7"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="AA743" s="6"/>
+      <c r="AB743" s="7"/>
+      <c r="AC743" s="7"/>
+      <c r="AD743" s="7"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="AA744" s="6"/>
+      <c r="AB744" s="7"/>
+      <c r="AC744" s="7"/>
+      <c r="AD744" s="7"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="AA745" s="6"/>
+      <c r="AB745" s="7"/>
+      <c r="AC745" s="7"/>
+      <c r="AD745" s="7"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="AA746" s="6"/>
+      <c r="AB746" s="7"/>
+      <c r="AC746" s="7"/>
+      <c r="AD746" s="7"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="AA747" s="6"/>
+      <c r="AB747" s="7"/>
+      <c r="AC747" s="7"/>
+      <c r="AD747" s="7"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="AA748" s="6"/>
+      <c r="AB748" s="7"/>
+      <c r="AC748" s="7"/>
+      <c r="AD748" s="7"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="AA749" s="6"/>
+      <c r="AB749" s="7"/>
+      <c r="AC749" s="7"/>
+      <c r="AD749" s="7"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="AA750" s="6"/>
+      <c r="AB750" s="7"/>
+      <c r="AC750" s="7"/>
+      <c r="AD750" s="7"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="AA751" s="6"/>
+      <c r="AB751" s="7"/>
+      <c r="AC751" s="7"/>
+      <c r="AD751" s="7"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="AA752" s="6"/>
+      <c r="AB752" s="7"/>
+      <c r="AC752" s="7"/>
+      <c r="AD752" s="7"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="AA753" s="6"/>
+      <c r="AB753" s="7"/>
+      <c r="AC753" s="7"/>
+      <c r="AD753" s="7"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="AA754" s="6"/>
+      <c r="AB754" s="7"/>
+      <c r="AC754" s="7"/>
+      <c r="AD754" s="7"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="AA755" s="6"/>
+      <c r="AB755" s="7"/>
+      <c r="AC755" s="7"/>
+      <c r="AD755" s="7"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="AA756" s="6"/>
+      <c r="AB756" s="7"/>
+      <c r="AC756" s="7"/>
+      <c r="AD756" s="7"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="AA757" s="6"/>
+      <c r="AB757" s="7"/>
+      <c r="AC757" s="7"/>
+      <c r="AD757" s="7"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="AA758" s="6"/>
+      <c r="AB758" s="7"/>
+      <c r="AC758" s="7"/>
+      <c r="AD758" s="7"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="AA759" s="6"/>
+      <c r="AB759" s="7"/>
+      <c r="AC759" s="7"/>
+      <c r="AD759" s="7"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="AA760" s="6"/>
+      <c r="AB760" s="7"/>
+      <c r="AC760" s="7"/>
+      <c r="AD760" s="7"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="AA761" s="6"/>
+      <c r="AB761" s="7"/>
+      <c r="AC761" s="7"/>
+      <c r="AD761" s="7"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="AA762" s="6"/>
+      <c r="AB762" s="7"/>
+      <c r="AC762" s="7"/>
+      <c r="AD762" s="7"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="AA763" s="6"/>
+      <c r="AB763" s="7"/>
+      <c r="AC763" s="7"/>
+      <c r="AD763" s="7"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="AA764" s="6"/>
+      <c r="AB764" s="7"/>
+      <c r="AC764" s="7"/>
+      <c r="AD764" s="7"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="AA765" s="6"/>
+      <c r="AB765" s="7"/>
+      <c r="AC765" s="7"/>
+      <c r="AD765" s="7"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="AA766" s="6"/>
+      <c r="AB766" s="7"/>
+      <c r="AC766" s="7"/>
+      <c r="AD766" s="7"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="AA767" s="6"/>
+      <c r="AB767" s="7"/>
+      <c r="AC767" s="7"/>
+      <c r="AD767" s="7"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="AA768" s="6"/>
+      <c r="AB768" s="7"/>
+      <c r="AC768" s="7"/>
+      <c r="AD768" s="7"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="AA769" s="6"/>
+      <c r="AB769" s="7"/>
+      <c r="AC769" s="7"/>
+      <c r="AD769" s="7"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="AA770" s="6"/>
+      <c r="AB770" s="7"/>
+      <c r="AC770" s="7"/>
+      <c r="AD770" s="7"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="AA771" s="6"/>
+      <c r="AB771" s="7"/>
+      <c r="AC771" s="7"/>
+      <c r="AD771" s="7"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="AA772" s="6"/>
+      <c r="AB772" s="7"/>
+      <c r="AC772" s="7"/>
+      <c r="AD772" s="7"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="AA773" s="6"/>
+      <c r="AB773" s="7"/>
+      <c r="AC773" s="7"/>
+      <c r="AD773" s="7"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="AA774" s="6"/>
+      <c r="AB774" s="7"/>
+      <c r="AC774" s="7"/>
+      <c r="AD774" s="7"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="AA775" s="6"/>
+      <c r="AB775" s="7"/>
+      <c r="AC775" s="7"/>
+      <c r="AD775" s="7"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="AA776" s="6"/>
+      <c r="AB776" s="7"/>
+      <c r="AC776" s="7"/>
+      <c r="AD776" s="7"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="AA777" s="6"/>
+      <c r="AB777" s="7"/>
+      <c r="AC777" s="7"/>
+      <c r="AD777" s="7"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="AA778" s="6"/>
+      <c r="AB778" s="7"/>
+      <c r="AC778" s="7"/>
+      <c r="AD778" s="7"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="AA779" s="6"/>
+      <c r="AB779" s="7"/>
+      <c r="AC779" s="7"/>
+      <c r="AD779" s="7"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="AA780" s="6"/>
+      <c r="AB780" s="7"/>
+      <c r="AC780" s="7"/>
+      <c r="AD780" s="7"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="AA781" s="6"/>
+      <c r="AB781" s="7"/>
+      <c r="AC781" s="7"/>
+      <c r="AD781" s="7"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="AA782" s="6"/>
+      <c r="AB782" s="7"/>
+      <c r="AC782" s="7"/>
+      <c r="AD782" s="7"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="AA783" s="6"/>
+      <c r="AB783" s="7"/>
+      <c r="AC783" s="7"/>
+      <c r="AD783" s="7"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="AA784" s="6"/>
+      <c r="AB784" s="7"/>
+      <c r="AC784" s="7"/>
+      <c r="AD784" s="7"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="AA785" s="6"/>
+      <c r="AB785" s="7"/>
+      <c r="AC785" s="7"/>
+      <c r="AD785" s="7"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="AA786" s="6"/>
+      <c r="AB786" s="7"/>
+      <c r="AC786" s="7"/>
+      <c r="AD786" s="7"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="AA787" s="6"/>
+      <c r="AB787" s="7"/>
+      <c r="AC787" s="7"/>
+      <c r="AD787" s="7"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="AA788" s="6"/>
+      <c r="AB788" s="7"/>
+      <c r="AC788" s="7"/>
+      <c r="AD788" s="7"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="AA789" s="6"/>
+      <c r="AB789" s="7"/>
+      <c r="AC789" s="7"/>
+      <c r="AD789" s="7"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="AA790" s="6"/>
+      <c r="AB790" s="7"/>
+      <c r="AC790" s="7"/>
+      <c r="AD790" s="7"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="AA791" s="6"/>
+      <c r="AB791" s="7"/>
+      <c r="AC791" s="7"/>
+      <c r="AD791" s="7"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="AA792" s="6"/>
+      <c r="AB792" s="7"/>
+      <c r="AC792" s="7"/>
+      <c r="AD792" s="7"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="AA793" s="6"/>
+      <c r="AB793" s="7"/>
+      <c r="AC793" s="7"/>
+      <c r="AD793" s="7"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="AA794" s="6"/>
+      <c r="AB794" s="7"/>
+      <c r="AC794" s="7"/>
+      <c r="AD794" s="7"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="AA795" s="6"/>
+      <c r="AB795" s="7"/>
+      <c r="AC795" s="7"/>
+      <c r="AD795" s="7"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="AA796" s="6"/>
+      <c r="AB796" s="7"/>
+      <c r="AC796" s="7"/>
+      <c r="AD796" s="7"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="AA797" s="6"/>
+      <c r="AB797" s="7"/>
+      <c r="AC797" s="7"/>
+      <c r="AD797" s="7"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="AA798" s="6"/>
+      <c r="AB798" s="7"/>
+      <c r="AC798" s="7"/>
+      <c r="AD798" s="7"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="AA799" s="6"/>
+      <c r="AB799" s="7"/>
+      <c r="AC799" s="7"/>
+      <c r="AD799" s="7"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="AA800" s="6"/>
+      <c r="AB800" s="7"/>
+      <c r="AC800" s="7"/>
+      <c r="AD800" s="7"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="AA801" s="6"/>
+      <c r="AB801" s="7"/>
+      <c r="AC801" s="7"/>
+      <c r="AD801" s="7"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="AA802" s="6"/>
+      <c r="AB802" s="7"/>
+      <c r="AC802" s="7"/>
+      <c r="AD802" s="7"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="AA803" s="6"/>
+      <c r="AB803" s="7"/>
+      <c r="AC803" s="7"/>
+      <c r="AD803" s="7"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="AA804" s="6"/>
+      <c r="AB804" s="7"/>
+      <c r="AC804" s="7"/>
+      <c r="AD804" s="7"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="AA805" s="6"/>
+      <c r="AB805" s="7"/>
+      <c r="AC805" s="7"/>
+      <c r="AD805" s="7"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="AA806" s="6"/>
+      <c r="AB806" s="7"/>
+      <c r="AC806" s="7"/>
+      <c r="AD806" s="7"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="AA807" s="6"/>
+      <c r="AB807" s="7"/>
+      <c r="AC807" s="7"/>
+      <c r="AD807" s="7"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="AA808" s="6"/>
+      <c r="AB808" s="7"/>
+      <c r="AC808" s="7"/>
+      <c r="AD808" s="7"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="AA809" s="6"/>
+      <c r="AB809" s="7"/>
+      <c r="AC809" s="7"/>
+      <c r="AD809" s="7"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="AA810" s="6"/>
+      <c r="AB810" s="7"/>
+      <c r="AC810" s="7"/>
+      <c r="AD810" s="7"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="AA811" s="6"/>
+      <c r="AB811" s="7"/>
+      <c r="AC811" s="7"/>
+      <c r="AD811" s="7"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="AA812" s="6"/>
+      <c r="AB812" s="7"/>
+      <c r="AC812" s="7"/>
+      <c r="AD812" s="7"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="AA813" s="6"/>
+      <c r="AB813" s="7"/>
+      <c r="AC813" s="7"/>
+      <c r="AD813" s="7"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="AA814" s="6"/>
+      <c r="AB814" s="7"/>
+      <c r="AC814" s="7"/>
+      <c r="AD814" s="7"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="AA815" s="6"/>
+      <c r="AB815" s="7"/>
+      <c r="AC815" s="7"/>
+      <c r="AD815" s="7"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="AA816" s="6"/>
+      <c r="AB816" s="7"/>
+      <c r="AC816" s="7"/>
+      <c r="AD816" s="7"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="AA817" s="6"/>
+      <c r="AB817" s="7"/>
+      <c r="AC817" s="7"/>
+      <c r="AD817" s="7"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="AA818" s="6"/>
+      <c r="AB818" s="7"/>
+      <c r="AC818" s="7"/>
+      <c r="AD818" s="7"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="AA819" s="6"/>
+      <c r="AB819" s="7"/>
+      <c r="AC819" s="7"/>
+      <c r="AD819" s="7"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="AA820" s="6"/>
+      <c r="AB820" s="7"/>
+      <c r="AC820" s="7"/>
+      <c r="AD820" s="7"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="AA821" s="6"/>
+      <c r="AB821" s="7"/>
+      <c r="AC821" s="7"/>
+      <c r="AD821" s="7"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="AA822" s="6"/>
+      <c r="AB822" s="7"/>
+      <c r="AC822" s="7"/>
+      <c r="AD822" s="7"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="AA823" s="6"/>
+      <c r="AB823" s="7"/>
+      <c r="AC823" s="7"/>
+      <c r="AD823" s="7"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="AA824" s="6"/>
+      <c r="AB824" s="7"/>
+      <c r="AC824" s="7"/>
+      <c r="AD824" s="7"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="AA825" s="6"/>
+      <c r="AB825" s="7"/>
+      <c r="AC825" s="7"/>
+      <c r="AD825" s="7"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="AA826" s="6"/>
+      <c r="AB826" s="7"/>
+      <c r="AC826" s="7"/>
+      <c r="AD826" s="7"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="AA827" s="6"/>
+      <c r="AB827" s="7"/>
+      <c r="AC827" s="7"/>
+      <c r="AD827" s="7"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="AA828" s="6"/>
+      <c r="AB828" s="7"/>
+      <c r="AC828" s="7"/>
+      <c r="AD828" s="7"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="AA829" s="6"/>
+      <c r="AB829" s="7"/>
+      <c r="AC829" s="7"/>
+      <c r="AD829" s="7"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="AA830" s="6"/>
+      <c r="AB830" s="7"/>
+      <c r="AC830" s="7"/>
+      <c r="AD830" s="7"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="AA831" s="6"/>
+      <c r="AB831" s="7"/>
+      <c r="AC831" s="7"/>
+      <c r="AD831" s="7"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="AA832" s="6"/>
+      <c r="AB832" s="7"/>
+      <c r="AC832" s="7"/>
+      <c r="AD832" s="7"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="AA833" s="6"/>
+      <c r="AB833" s="7"/>
+      <c r="AC833" s="7"/>
+      <c r="AD833" s="7"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="AA834" s="6"/>
+      <c r="AB834" s="7"/>
+      <c r="AC834" s="7"/>
+      <c r="AD834" s="7"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="AA835" s="6"/>
+      <c r="AB835" s="7"/>
+      <c r="AC835" s="7"/>
+      <c r="AD835" s="7"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="AA836" s="6"/>
+      <c r="AB836" s="7"/>
+      <c r="AC836" s="7"/>
+      <c r="AD836" s="7"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="AA837" s="6"/>
+      <c r="AB837" s="7"/>
+      <c r="AC837" s="7"/>
+      <c r="AD837" s="7"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="AA838" s="6"/>
+      <c r="AB838" s="7"/>
+      <c r="AC838" s="7"/>
+      <c r="AD838" s="7"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="AA839" s="6"/>
+      <c r="AB839" s="7"/>
+      <c r="AC839" s="7"/>
+      <c r="AD839" s="7"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="AA840" s="6"/>
+      <c r="AB840" s="7"/>
+      <c r="AC840" s="7"/>
+      <c r="AD840" s="7"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="AA841" s="6"/>
+      <c r="AB841" s="7"/>
+      <c r="AC841" s="7"/>
+      <c r="AD841" s="7"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="AA842" s="6"/>
+      <c r="AB842" s="7"/>
+      <c r="AC842" s="7"/>
+      <c r="AD842" s="7"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="AA843" s="6"/>
+      <c r="AB843" s="7"/>
+      <c r="AC843" s="7"/>
+      <c r="AD843" s="7"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="AA844" s="6"/>
+      <c r="AB844" s="7"/>
+      <c r="AC844" s="7"/>
+      <c r="AD844" s="7"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="AA845" s="6"/>
+      <c r="AB845" s="7"/>
+      <c r="AC845" s="7"/>
+      <c r="AD845" s="7"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="AA846" s="6"/>
+      <c r="AB846" s="7"/>
+      <c r="AC846" s="7"/>
+      <c r="AD846" s="7"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="AA847" s="6"/>
+      <c r="AB847" s="7"/>
+      <c r="AC847" s="7"/>
+      <c r="AD847" s="7"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="AA848" s="6"/>
+      <c r="AB848" s="7"/>
+      <c r="AC848" s="7"/>
+      <c r="AD848" s="7"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="AA849" s="6"/>
+      <c r="AB849" s="7"/>
+      <c r="AC849" s="7"/>
+      <c r="AD849" s="7"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="AA850" s="6"/>
+      <c r="AB850" s="7"/>
+      <c r="AC850" s="7"/>
+      <c r="AD850" s="7"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="AA851" s="6"/>
+      <c r="AB851" s="7"/>
+      <c r="AC851" s="7"/>
+      <c r="AD851" s="7"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="AA852" s="6"/>
+      <c r="AB852" s="7"/>
+      <c r="AC852" s="7"/>
+      <c r="AD852" s="7"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="AA853" s="6"/>
+      <c r="AB853" s="7"/>
+      <c r="AC853" s="7"/>
+      <c r="AD853" s="7"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="AA854" s="6"/>
+      <c r="AB854" s="7"/>
+      <c r="AC854" s="7"/>
+      <c r="AD854" s="7"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="AA855" s="6"/>
+      <c r="AB855" s="7"/>
+      <c r="AC855" s="7"/>
+      <c r="AD855" s="7"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="AA856" s="6"/>
+      <c r="AB856" s="7"/>
+      <c r="AC856" s="7"/>
+      <c r="AD856" s="7"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="AA857" s="6"/>
+      <c r="AB857" s="7"/>
+      <c r="AC857" s="7"/>
+      <c r="AD857" s="7"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="AA858" s="6"/>
+      <c r="AB858" s="7"/>
+      <c r="AC858" s="7"/>
+      <c r="AD858" s="7"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="AA859" s="6"/>
+      <c r="AB859" s="7"/>
+      <c r="AC859" s="7"/>
+      <c r="AD859" s="7"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="AA860" s="6"/>
+      <c r="AB860" s="7"/>
+      <c r="AC860" s="7"/>
+      <c r="AD860" s="7"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="AA861" s="6"/>
+      <c r="AB861" s="7"/>
+      <c r="AC861" s="7"/>
+      <c r="AD861" s="7"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="AA862" s="6"/>
+      <c r="AB862" s="7"/>
+      <c r="AC862" s="7"/>
+      <c r="AD862" s="7"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="AA863" s="6"/>
+      <c r="AB863" s="7"/>
+      <c r="AC863" s="7"/>
+      <c r="AD863" s="7"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="AA864" s="6"/>
+      <c r="AB864" s="7"/>
+      <c r="AC864" s="7"/>
+      <c r="AD864" s="7"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="AA865" s="6"/>
+      <c r="AB865" s="7"/>
+      <c r="AC865" s="7"/>
+      <c r="AD865" s="7"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="AA866" s="6"/>
+      <c r="AB866" s="7"/>
+      <c r="AC866" s="7"/>
+      <c r="AD866" s="7"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="AA867" s="6"/>
+      <c r="AB867" s="7"/>
+      <c r="AC867" s="7"/>
+      <c r="AD867" s="7"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="AA868" s="6"/>
+      <c r="AB868" s="7"/>
+      <c r="AC868" s="7"/>
+      <c r="AD868" s="7"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="AA869" s="6"/>
+      <c r="AB869" s="7"/>
+      <c r="AC869" s="7"/>
+      <c r="AD869" s="7"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="AA870" s="6"/>
+      <c r="AB870" s="7"/>
+      <c r="AC870" s="7"/>
+      <c r="AD870" s="7"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="AA871" s="6"/>
+      <c r="AB871" s="7"/>
+      <c r="AC871" s="7"/>
+      <c r="AD871" s="7"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="AA872" s="6"/>
+      <c r="AB872" s="7"/>
+      <c r="AC872" s="7"/>
+      <c r="AD872" s="7"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="AA873" s="6"/>
+      <c r="AB873" s="7"/>
+      <c r="AC873" s="7"/>
+      <c r="AD873" s="7"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="AA874" s="6"/>
+      <c r="AB874" s="7"/>
+      <c r="AC874" s="7"/>
+      <c r="AD874" s="7"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="AA875" s="6"/>
+      <c r="AB875" s="7"/>
+      <c r="AC875" s="7"/>
+      <c r="AD875" s="7"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="AA876" s="6"/>
+      <c r="AB876" s="7"/>
+      <c r="AC876" s="7"/>
+      <c r="AD876" s="7"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="AA877" s="6"/>
+      <c r="AB877" s="7"/>
+      <c r="AC877" s="7"/>
+      <c r="AD877" s="7"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="AA878" s="6"/>
+      <c r="AB878" s="7"/>
+      <c r="AC878" s="7"/>
+      <c r="AD878" s="7"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="AA879" s="6"/>
+      <c r="AB879" s="7"/>
+      <c r="AC879" s="7"/>
+      <c r="AD879" s="7"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="AA880" s="6"/>
+      <c r="AB880" s="7"/>
+      <c r="AC880" s="7"/>
+      <c r="AD880" s="7"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="AA881" s="6"/>
+      <c r="AB881" s="7"/>
+      <c r="AC881" s="7"/>
+      <c r="AD881" s="7"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="AA882" s="6"/>
+      <c r="AB882" s="7"/>
+      <c r="AC882" s="7"/>
+      <c r="AD882" s="7"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="AA883" s="6"/>
+      <c r="AB883" s="7"/>
+      <c r="AC883" s="7"/>
+      <c r="AD883" s="7"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="AA884" s="6"/>
+      <c r="AB884" s="7"/>
+      <c r="AC884" s="7"/>
+      <c r="AD884" s="7"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="AA885" s="6"/>
+      <c r="AB885" s="7"/>
+      <c r="AC885" s="7"/>
+      <c r="AD885" s="7"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="AA886" s="6"/>
+      <c r="AB886" s="7"/>
+      <c r="AC886" s="7"/>
+      <c r="AD886" s="7"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="AA887" s="6"/>
+      <c r="AB887" s="7"/>
+      <c r="AC887" s="7"/>
+      <c r="AD887" s="7"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="AA888" s="6"/>
+      <c r="AB888" s="7"/>
+      <c r="AC888" s="7"/>
+      <c r="AD888" s="7"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="AA889" s="6"/>
+      <c r="AB889" s="7"/>
+      <c r="AC889" s="7"/>
+      <c r="AD889" s="7"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="AA890" s="6"/>
+      <c r="AB890" s="7"/>
+      <c r="AC890" s="7"/>
+      <c r="AD890" s="7"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="AA891" s="6"/>
+      <c r="AB891" s="7"/>
+      <c r="AC891" s="7"/>
+      <c r="AD891" s="7"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="AA892" s="6"/>
+      <c r="AB892" s="7"/>
+      <c r="AC892" s="7"/>
+      <c r="AD892" s="7"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="AA893" s="6"/>
+      <c r="AB893" s="7"/>
+      <c r="AC893" s="7"/>
+      <c r="AD893" s="7"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="AA894" s="6"/>
+      <c r="AB894" s="7"/>
+      <c r="AC894" s="7"/>
+      <c r="AD894" s="7"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="AA895" s="6"/>
+      <c r="AB895" s="7"/>
+      <c r="AC895" s="7"/>
+      <c r="AD895" s="7"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="AA896" s="6"/>
+      <c r="AB896" s="7"/>
+      <c r="AC896" s="7"/>
+      <c r="AD896" s="7"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="AA897" s="6"/>
+      <c r="AB897" s="7"/>
+      <c r="AC897" s="7"/>
+      <c r="AD897" s="7"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="AA898" s="6"/>
+      <c r="AB898" s="7"/>
+      <c r="AC898" s="7"/>
+      <c r="AD898" s="7"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="AA899" s="6"/>
+      <c r="AB899" s="7"/>
+      <c r="AC899" s="7"/>
+      <c r="AD899" s="7"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="AA900" s="6"/>
+      <c r="AB900" s="7"/>
+      <c r="AC900" s="7"/>
+      <c r="AD900" s="7"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="AA901" s="6"/>
+      <c r="AB901" s="7"/>
+      <c r="AC901" s="7"/>
+      <c r="AD901" s="7"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="AA902" s="6"/>
+      <c r="AB902" s="7"/>
+      <c r="AC902" s="7"/>
+      <c r="AD902" s="7"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="AA903" s="6"/>
+      <c r="AB903" s="7"/>
+      <c r="AC903" s="7"/>
+      <c r="AD903" s="7"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="AA904" s="6"/>
+      <c r="AB904" s="7"/>
+      <c r="AC904" s="7"/>
+      <c r="AD904" s="7"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="AA905" s="6"/>
+      <c r="AB905" s="7"/>
+      <c r="AC905" s="7"/>
+      <c r="AD905" s="7"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="AA906" s="6"/>
+      <c r="AB906" s="7"/>
+      <c r="AC906" s="7"/>
+      <c r="AD906" s="7"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="AA907" s="6"/>
+      <c r="AB907" s="7"/>
+      <c r="AC907" s="7"/>
+      <c r="AD907" s="7"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="AA908" s="6"/>
+      <c r="AB908" s="7"/>
+      <c r="AC908" s="7"/>
+      <c r="AD908" s="7"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="AA909" s="6"/>
+      <c r="AB909" s="7"/>
+      <c r="AC909" s="7"/>
+      <c r="AD909" s="7"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="AA910" s="6"/>
+      <c r="AB910" s="7"/>
+      <c r="AC910" s="7"/>
+      <c r="AD910" s="7"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="AA911" s="6"/>
+      <c r="AB911" s="7"/>
+      <c r="AC911" s="7"/>
+      <c r="AD911" s="7"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="AA912" s="6"/>
+      <c r="AB912" s="7"/>
+      <c r="AC912" s="7"/>
+      <c r="AD912" s="7"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="AA913" s="6"/>
+      <c r="AB913" s="7"/>
+      <c r="AC913" s="7"/>
+      <c r="AD913" s="7"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="AA914" s="6"/>
+      <c r="AB914" s="7"/>
+      <c r="AC914" s="7"/>
+      <c r="AD914" s="7"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="AA915" s="6"/>
+      <c r="AB915" s="7"/>
+      <c r="AC915" s="7"/>
+      <c r="AD915" s="7"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="AA916" s="6"/>
+      <c r="AB916" s="7"/>
+      <c r="AC916" s="7"/>
+      <c r="AD916" s="7"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="AA917" s="6"/>
+      <c r="AB917" s="7"/>
+      <c r="AC917" s="7"/>
+      <c r="AD917" s="7"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="AA918" s="6"/>
+      <c r="AB918" s="7"/>
+      <c r="AC918" s="7"/>
+      <c r="AD918" s="7"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="AA919" s="6"/>
+      <c r="AB919" s="7"/>
+      <c r="AC919" s="7"/>
+      <c r="AD919" s="7"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="AA920" s="6"/>
+      <c r="AB920" s="7"/>
+      <c r="AC920" s="7"/>
+      <c r="AD920" s="7"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="AA921" s="6"/>
+      <c r="AB921" s="7"/>
+      <c r="AC921" s="7"/>
+      <c r="AD921" s="7"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="AA922" s="6"/>
+      <c r="AB922" s="7"/>
+      <c r="AC922" s="7"/>
+      <c r="AD922" s="7"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="AA923" s="6"/>
+      <c r="AB923" s="7"/>
+      <c r="AC923" s="7"/>
+      <c r="AD923" s="7"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="AA924" s="6"/>
+      <c r="AB924" s="7"/>
+      <c r="AC924" s="7"/>
+      <c r="AD924" s="7"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="AA925" s="6"/>
+      <c r="AB925" s="7"/>
+      <c r="AC925" s="7"/>
+      <c r="AD925" s="7"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="AA926" s="6"/>
+      <c r="AB926" s="7"/>
+      <c r="AC926" s="7"/>
+      <c r="AD926" s="7"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="AA927" s="6"/>
+      <c r="AB927" s="7"/>
+      <c r="AC927" s="7"/>
+      <c r="AD927" s="7"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="AA928" s="6"/>
+      <c r="AB928" s="7"/>
+      <c r="AC928" s="7"/>
+      <c r="AD928" s="7"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="AA929" s="6"/>
+      <c r="AB929" s="7"/>
+      <c r="AC929" s="7"/>
+      <c r="AD929" s="7"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="AA930" s="6"/>
+      <c r="AB930" s="7"/>
+      <c r="AC930" s="7"/>
+      <c r="AD930" s="7"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="AA931" s="6"/>
+      <c r="AB931" s="7"/>
+      <c r="AC931" s="7"/>
+      <c r="AD931" s="7"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="AA932" s="6"/>
+      <c r="AB932" s="7"/>
+      <c r="AC932" s="7"/>
+      <c r="AD932" s="7"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="AA933" s="6"/>
+      <c r="AB933" s="7"/>
+      <c r="AC933" s="7"/>
+      <c r="AD933" s="7"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="AA934" s="6"/>
+      <c r="AB934" s="7"/>
+      <c r="AC934" s="7"/>
+      <c r="AD934" s="7"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="AA935" s="6"/>
+      <c r="AB935" s="7"/>
+      <c r="AC935" s="7"/>
+      <c r="AD935" s="7"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="AA936" s="6"/>
+      <c r="AB936" s="7"/>
+      <c r="AC936" s="7"/>
+      <c r="AD936" s="7"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="AA937" s="6"/>
+      <c r="AB937" s="7"/>
+      <c r="AC937" s="7"/>
+      <c r="AD937" s="7"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="AA938" s="6"/>
+      <c r="AB938" s="7"/>
+      <c r="AC938" s="7"/>
+      <c r="AD938" s="7"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="AA939" s="6"/>
+      <c r="AB939" s="7"/>
+      <c r="AC939" s="7"/>
+      <c r="AD939" s="7"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="AA940" s="6"/>
+      <c r="AB940" s="7"/>
+      <c r="AC940" s="7"/>
+      <c r="AD940" s="7"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="AA941" s="6"/>
+      <c r="AB941" s="7"/>
+      <c r="AC941" s="7"/>
+      <c r="AD941" s="7"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="AA942" s="6"/>
+      <c r="AB942" s="7"/>
+      <c r="AC942" s="7"/>
+      <c r="AD942" s="7"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="AA943" s="6"/>
+      <c r="AB943" s="7"/>
+      <c r="AC943" s="7"/>
+      <c r="AD943" s="7"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="AA944" s="6"/>
+      <c r="AB944" s="7"/>
+      <c r="AC944" s="7"/>
+      <c r="AD944" s="7"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="AA945" s="6"/>
+      <c r="AB945" s="7"/>
+      <c r="AC945" s="7"/>
+      <c r="AD945" s="7"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="AA946" s="6"/>
+      <c r="AB946" s="7"/>
+      <c r="AC946" s="7"/>
+      <c r="AD946" s="7"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="AA947" s="6"/>
+      <c r="AB947" s="7"/>
+      <c r="AC947" s="7"/>
+      <c r="AD947" s="7"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="AA948" s="6"/>
+      <c r="AB948" s="7"/>
+      <c r="AC948" s="7"/>
+      <c r="AD948" s="7"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="AA949" s="6"/>
+      <c r="AB949" s="7"/>
+      <c r="AC949" s="7"/>
+      <c r="AD949" s="7"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="AA950" s="6"/>
+      <c r="AB950" s="7"/>
+      <c r="AC950" s="7"/>
+      <c r="AD950" s="7"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="AA951" s="6"/>
+      <c r="AB951" s="7"/>
+      <c r="AC951" s="7"/>
+      <c r="AD951" s="7"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="AA952" s="6"/>
+      <c r="AB952" s="7"/>
+      <c r="AC952" s="7"/>
+      <c r="AD952" s="7"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="AA953" s="6"/>
+      <c r="AB953" s="7"/>
+      <c r="AC953" s="7"/>
+      <c r="AD953" s="7"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="AA954" s="6"/>
+      <c r="AB954" s="7"/>
+      <c r="AC954" s="7"/>
+      <c r="AD954" s="7"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="AA955" s="6"/>
+      <c r="AB955" s="7"/>
+      <c r="AC955" s="7"/>
+      <c r="AD955" s="7"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="AA956" s="6"/>
+      <c r="AB956" s="7"/>
+      <c r="AC956" s="7"/>
+      <c r="AD956" s="7"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="AA957" s="6"/>
+      <c r="AB957" s="7"/>
+      <c r="AC957" s="7"/>
+      <c r="AD957" s="7"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="AA958" s="6"/>
+      <c r="AB958" s="7"/>
+      <c r="AC958" s="7"/>
+      <c r="AD958" s="7"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="AA959" s="6"/>
+      <c r="AB959" s="7"/>
+      <c r="AC959" s="7"/>
+      <c r="AD959" s="7"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="AA960" s="6"/>
+      <c r="AB960" s="7"/>
+      <c r="AC960" s="7"/>
+      <c r="AD960" s="7"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="AA961" s="6"/>
+      <c r="AB961" s="7"/>
+      <c r="AC961" s="7"/>
+      <c r="AD961" s="7"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="AA962" s="6"/>
+      <c r="AB962" s="7"/>
+      <c r="AC962" s="7"/>
+      <c r="AD962" s="7"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="AA963" s="6"/>
+      <c r="AB963" s="7"/>
+      <c r="AC963" s="7"/>
+      <c r="AD963" s="7"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="AA964" s="6"/>
+      <c r="AB964" s="7"/>
+      <c r="AC964" s="7"/>
+      <c r="AD964" s="7"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="AA965" s="6"/>
+      <c r="AB965" s="7"/>
+      <c r="AC965" s="7"/>
+      <c r="AD965" s="7"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="AA966" s="6"/>
+      <c r="AB966" s="7"/>
+      <c r="AC966" s="7"/>
+      <c r="AD966" s="7"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="AA967" s="6"/>
+      <c r="AB967" s="7"/>
+      <c r="AC967" s="7"/>
+      <c r="AD967" s="7"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="AA968" s="6"/>
+      <c r="AB968" s="7"/>
+      <c r="AC968" s="7"/>
+      <c r="AD968" s="7"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="AA969" s="6"/>
+      <c r="AB969" s="7"/>
+      <c r="AC969" s="7"/>
+      <c r="AD969" s="7"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="AA970" s="6"/>
+      <c r="AB970" s="7"/>
+      <c r="AC970" s="7"/>
+      <c r="AD970" s="7"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="AA971" s="6"/>
+      <c r="AB971" s="7"/>
+      <c r="AC971" s="7"/>
+      <c r="AD971" s="7"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="AA972" s="6"/>
+      <c r="AB972" s="7"/>
+      <c r="AC972" s="7"/>
+      <c r="AD972" s="7"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="AA973" s="6"/>
+      <c r="AB973" s="7"/>
+      <c r="AC973" s="7"/>
+      <c r="AD973" s="7"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="AA974" s="6"/>
+      <c r="AB974" s="7"/>
+      <c r="AC974" s="7"/>
+      <c r="AD974" s="7"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="AA975" s="6"/>
+      <c r="AB975" s="7"/>
+      <c r="AC975" s="7"/>
+      <c r="AD975" s="7"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="AA976" s="6"/>
+      <c r="AB976" s="7"/>
+      <c r="AC976" s="7"/>
+      <c r="AD976" s="7"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="AA977" s="6"/>
+      <c r="AB977" s="7"/>
+      <c r="AC977" s="7"/>
+      <c r="AD977" s="7"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="AA978" s="6"/>
+      <c r="AB978" s="7"/>
+      <c r="AC978" s="7"/>
+      <c r="AD978" s="7"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="AA979" s="6"/>
+      <c r="AB979" s="7"/>
+      <c r="AC979" s="7"/>
+      <c r="AD979" s="7"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="AA980" s="6"/>
+      <c r="AB980" s="7"/>
+      <c r="AC980" s="7"/>
+      <c r="AD980" s="7"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="AA981" s="6"/>
+      <c r="AB981" s="7"/>
+      <c r="AC981" s="7"/>
+      <c r="AD981" s="7"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="AA982" s="6"/>
+      <c r="AB982" s="7"/>
+      <c r="AC982" s="7"/>
+      <c r="AD982" s="7"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="AA983" s="6"/>
+      <c r="AB983" s="7"/>
+      <c r="AC983" s="7"/>
+      <c r="AD983" s="7"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="AA984" s="6"/>
+      <c r="AB984" s="7"/>
+      <c r="AC984" s="7"/>
+      <c r="AD984" s="7"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="AA985" s="6"/>
+      <c r="AB985" s="7"/>
+      <c r="AC985" s="7"/>
+      <c r="AD985" s="7"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="AA986" s="6"/>
+      <c r="AB986" s="7"/>
+      <c r="AC986" s="7"/>
+      <c r="AD986" s="7"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="AA987" s="6"/>
+      <c r="AB987" s="7"/>
+      <c r="AC987" s="7"/>
+      <c r="AD987" s="7"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="AA988" s="6"/>
+      <c r="AB988" s="7"/>
+      <c r="AC988" s="7"/>
+      <c r="AD988" s="7"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="AA989" s="6"/>
+      <c r="AB989" s="7"/>
+      <c r="AC989" s="7"/>
+      <c r="AD989" s="7"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="AA990" s="6"/>
+      <c r="AB990" s="7"/>
+      <c r="AC990" s="7"/>
+      <c r="AD990" s="7"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="AA991" s="6"/>
+      <c r="AB991" s="7"/>
+      <c r="AC991" s="7"/>
+      <c r="AD991" s="7"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="AA992" s="6"/>
+      <c r="AB992" s="7"/>
+      <c r="AC992" s="7"/>
+      <c r="AD992" s="7"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="AA993" s="6"/>
+      <c r="AB993" s="7"/>
+      <c r="AC993" s="7"/>
+      <c r="AD993" s="7"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="AA994" s="6"/>
+      <c r="AB994" s="7"/>
+      <c r="AC994" s="7"/>
+      <c r="AD994" s="7"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="AA995" s="6"/>
+      <c r="AB995" s="7"/>
+      <c r="AC995" s="7"/>
+      <c r="AD995" s="7"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="AA996" s="6"/>
+      <c r="AB996" s="7"/>
+      <c r="AC996" s="7"/>
+      <c r="AD996" s="7"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="AA997" s="6"/>
+      <c r="AB997" s="7"/>
+      <c r="AC997" s="7"/>
+      <c r="AD997" s="7"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="AA998" s="6"/>
+      <c r="AB998" s="7"/>
+      <c r="AC998" s="7"/>
+      <c r="AD998" s="7"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="AA999" s="6"/>
+      <c r="AB999" s="7"/>
+      <c r="AC999" s="7"/>
+      <c r="AD999" s="7"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="AA1000" s="6"/>
+      <c r="AB1000" s="7"/>
+      <c r="AC1000" s="7"/>
+      <c r="AD1000" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
